--- a/styledTechnicalIndicators.xlsx
+++ b/styledTechnicalIndicators.xlsx
@@ -1255,6 +1255,7 @@
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="170" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="169" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="215" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1264,6 +1265,7 @@
     <xf numFmtId="0" fontId="3" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="220" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1273,6 +1275,7 @@
     <xf numFmtId="0" fontId="2" fillId="230" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="174" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1281,7 +1284,7 @@
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1295,8 +1298,6 @@
     <xf numFmtId="0" fontId="3" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="209" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="215" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1323,7 +1324,6 @@
     <xf numFmtId="0" fontId="3" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1333,6 +1333,7 @@
     <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="185" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="196" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1356,13 +1357,13 @@
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="225" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="222" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="233" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="187" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="212" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1379,6 +1380,7 @@
     <xf numFmtId="0" fontId="3" fillId="189" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="175" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="214" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="227" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1392,9 +1394,7 @@
     <xf numFmtId="0" fontId="3" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="160" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="227" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1405,9 +1405,9 @@
     <xf numFmtId="0" fontId="2" fillId="172" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="152" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="153" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1418,6 +1418,7 @@
     <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="192" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="155" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="193" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="156" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1425,7 +1426,6 @@
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="158" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1446,6 +1446,7 @@
     <xf numFmtId="0" fontId="3" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="173" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="217" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="219" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1464,6 +1465,7 @@
     <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="236" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="237" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="199" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="228" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="201" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1472,7 +1474,6 @@
     <xf numFmtId="0" fontId="3" fillId="218" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="229" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="203" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="237" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="204" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="207" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="234" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1481,7 +1482,6 @@
     <xf numFmtId="0" fontId="3" fillId="177" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="178" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="179" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="219" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1847,7 +1847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1906,6 +1906,11 @@
           <t>MACD</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1940,6 +1945,9 @@
       <c r="J2" s="10" t="n">
         <v>0.01</v>
       </c>
+      <c r="K2" s="11" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1947,32 +1955,35 @@
           <t>UDN</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>-3.51</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>-1.22</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="15" t="n">
         <v>-7.5</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="16" t="n">
         <v>35.61</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="17" t="n">
         <v>36.98</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="18" t="n">
         <v>38.81</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="19" t="n">
         <v>44.66</v>
       </c>
-      <c r="J3" s="19" t="n">
+      <c r="J3" s="20" t="n">
         <v>-0.09</v>
+      </c>
+      <c r="K3" s="21" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1981,32 +1992,35 @@
           <t>CEW</t>
         </is>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="22" t="n">
         <v>-0.46</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="23" t="n">
         <v>1.2</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="24" t="n">
         <v>3.35</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="25" t="n">
         <v>-3.67</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="26" t="n">
         <v>39.42</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="27" t="n">
         <v>40.96</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="28" t="n">
         <v>42.68</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29" t="n">
         <v>48.63</v>
       </c>
-      <c r="J4" s="28" t="n">
+      <c r="J4" s="30" t="n">
         <v>-0.06</v>
+      </c>
+      <c r="K4" s="31" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2015,32 +2029,35 @@
           <t>DBP</t>
         </is>
       </c>
-      <c r="B5" s="29" t="n">
+      <c r="B5" s="32" t="n">
         <v>-2.06</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="33" t="n">
         <v>-0.1</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="34" t="n">
         <v>6.13</v>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="35" t="n">
         <v>-8.35</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="36" t="n">
         <v>49.43</v>
       </c>
-      <c r="G5" s="34" t="n">
+      <c r="G5" s="37" t="n">
         <v>46.96</v>
       </c>
-      <c r="H5" s="35" t="n">
+      <c r="H5" s="38" t="n">
         <v>46.29</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="39" t="n">
         <v>48.28</v>
       </c>
-      <c r="J5" s="37" t="n">
+      <c r="J5" s="21" t="n">
         <v>-0.18</v>
+      </c>
+      <c r="K5" s="40" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="6">
@@ -2049,32 +2066,35 @@
           <t>GLD</t>
         </is>
       </c>
-      <c r="B6" s="38" t="n">
+      <c r="B6" s="41" t="n">
         <v>3.41</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="42" t="n">
         <v>3.37</v>
       </c>
-      <c r="D6" s="40" t="n">
+      <c r="D6" s="43" t="n">
         <v>12.03</v>
       </c>
-      <c r="E6" s="41" t="n">
+      <c r="E6" s="44" t="n">
         <v>-2.07</v>
       </c>
-      <c r="F6" s="42" t="n">
+      <c r="F6" s="45" t="n">
         <v>52.13</v>
       </c>
-      <c r="G6" s="43" t="n">
+      <c r="G6" s="46" t="n">
         <v>51.46</v>
       </c>
-      <c r="H6" s="44" t="n">
+      <c r="H6" s="47" t="n">
         <v>51.95</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="48" t="n">
         <v>53.16</v>
       </c>
-      <c r="J6" s="35" t="n">
+      <c r="J6" s="38" t="n">
         <v>0.12</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
@@ -2083,32 +2103,35 @@
           <t>SLV</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="49" t="n">
         <v>-3.4</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="50" t="n">
         <v>0.11</v>
       </c>
-      <c r="D7" s="48" t="n">
+      <c r="D7" s="51" t="n">
         <v>12.77</v>
       </c>
-      <c r="E7" s="49" t="n">
+      <c r="E7" s="52" t="n">
         <v>-13.32</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="53" t="n">
         <v>43.48</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="30" t="n">
         <v>44.39</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="11" t="n">
         <v>45.13</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="39" t="n">
         <v>48.21</v>
       </c>
-      <c r="J7" s="52" t="n">
+      <c r="J7" s="31" t="n">
         <v>-0.14</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="8">
@@ -2117,32 +2140,35 @@
           <t>PPLT</t>
         </is>
       </c>
-      <c r="B8" s="27" t="n">
+      <c r="B8" s="29" t="n">
         <v>-5.45</v>
       </c>
-      <c r="C8" s="53" t="n">
+      <c r="C8" s="54" t="n">
         <v>-1.1</v>
       </c>
-      <c r="D8" s="54" t="n">
+      <c r="D8" s="55" t="n">
         <v>5.41</v>
       </c>
-      <c r="E8" s="55" t="n">
+      <c r="E8" s="56" t="n">
         <v>-20.86</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="57" t="n">
         <v>35.19</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="16" t="n">
         <v>39.69</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="27" t="n">
         <v>42.36</v>
       </c>
-      <c r="I8" s="57" t="n">
+      <c r="I8" s="58" t="n">
         <v>47.25</v>
       </c>
-      <c r="J8" s="58" t="n">
+      <c r="J8" s="59" t="n">
         <v>-0.86</v>
+      </c>
+      <c r="K8" s="57" t="n">
+        <v>-0.85</v>
       </c>
     </row>
     <row r="9">
@@ -2151,32 +2177,35 @@
           <t>DBE</t>
         </is>
       </c>
-      <c r="B9" s="59" t="n">
+      <c r="B9" s="60" t="n">
         <v>-8.51</v>
       </c>
-      <c r="C9" s="60" t="n">
+      <c r="C9" s="61" t="n">
         <v>-5.71</v>
       </c>
-      <c r="D9" s="61" t="n">
+      <c r="D9" s="62" t="n">
         <v>3.88</v>
       </c>
-      <c r="E9" s="62" t="n">
+      <c r="E9" s="63" t="n">
         <v>-20.49</v>
       </c>
-      <c r="F9" s="63" t="n">
+      <c r="F9" s="64" t="n">
         <v>31.6</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="19" t="n">
         <v>40.46</v>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="65" t="n">
         <v>42.13</v>
       </c>
-      <c r="I9" s="65" t="n">
+      <c r="I9" s="66" t="n">
         <v>45.15</v>
       </c>
-      <c r="J9" s="28" t="n">
+      <c r="J9" s="30" t="n">
         <v>-0.06</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -2185,32 +2214,35 @@
           <t>DBO</t>
         </is>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="20" t="n">
         <v>-8.98</v>
       </c>
-      <c r="C10" s="66" t="n">
+      <c r="C10" s="67" t="n">
         <v>-5.99</v>
       </c>
-      <c r="D10" s="67" t="n">
+      <c r="D10" s="68" t="n">
         <v>6.64</v>
       </c>
-      <c r="E10" s="68" t="n">
+      <c r="E10" s="69" t="n">
         <v>-23.12</v>
       </c>
-      <c r="F10" s="69" t="n">
+      <c r="F10" s="70" t="n">
         <v>32</v>
       </c>
-      <c r="G10" s="64" t="n">
+      <c r="G10" s="65" t="n">
         <v>40.79</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="27" t="n">
         <v>42.35</v>
       </c>
-      <c r="I10" s="70" t="n">
+      <c r="I10" s="71" t="n">
         <v>45.68</v>
       </c>
-      <c r="J10" s="28" t="n">
+      <c r="J10" s="30" t="n">
         <v>-0.04</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
@@ -2219,32 +2251,35 @@
           <t>UNG</t>
         </is>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="14" t="n">
         <v>-25.33</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>-18.71</v>
       </c>
-      <c r="D11" s="71" t="n">
+      <c r="D11" s="72" t="n">
         <v>7.08</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="14" t="n">
         <v>-51.01</v>
       </c>
-      <c r="F11" s="72" t="n">
+      <c r="F11" s="73" t="n">
         <v>37.93</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="27" t="n">
         <v>40.98</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="27" t="n">
         <v>42.36</v>
       </c>
-      <c r="I11" s="56" t="n">
+      <c r="I11" s="57" t="n">
         <v>44.06</v>
       </c>
-      <c r="J11" s="73" t="n">
+      <c r="J11" s="74" t="n">
         <v>-0.85</v>
+      </c>
+      <c r="K11" s="27" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2253,32 +2288,35 @@
           <t>DBB</t>
         </is>
       </c>
-      <c r="B12" s="74" t="n">
+      <c r="B12" s="75" t="n">
         <v>-4.67</v>
       </c>
-      <c r="C12" s="75" t="n">
+      <c r="C12" s="76" t="n">
         <v>-1.94</v>
       </c>
-      <c r="D12" s="76" t="n">
+      <c r="D12" s="77" t="n">
         <v>2.05</v>
       </c>
-      <c r="E12" s="77" t="n">
+      <c r="E12" s="78" t="n">
         <v>-17.39</v>
       </c>
-      <c r="F12" s="78" t="n">
+      <c r="F12" s="79" t="n">
         <v>38.71</v>
       </c>
-      <c r="G12" s="79" t="n">
+      <c r="G12" s="40" t="n">
         <v>42.64</v>
       </c>
-      <c r="H12" s="78" t="n">
+      <c r="H12" s="79" t="n">
         <v>43.3</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="26" t="n">
         <v>46.02</v>
       </c>
-      <c r="J12" s="19" t="n">
+      <c r="J12" s="20" t="n">
         <v>-0.08</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13">
@@ -2299,10 +2337,10 @@
       <c r="E13" s="83" t="n">
         <v>-6.89</v>
       </c>
-      <c r="F13" s="60" t="n">
+      <c r="F13" s="61" t="n">
         <v>44.98</v>
       </c>
-      <c r="G13" s="46" t="n">
+      <c r="G13" s="49" t="n">
         <v>49.45</v>
       </c>
       <c r="H13" s="84" t="n">
@@ -2311,8 +2349,11 @@
       <c r="I13" s="85" t="n">
         <v>51.09</v>
       </c>
-      <c r="J13" s="57" t="n">
+      <c r="J13" s="58" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
@@ -2321,7 +2362,7 @@
           <t>PALL</t>
         </is>
       </c>
-      <c r="B14" s="54" t="n">
+      <c r="B14" s="55" t="n">
         <v>-21.28</v>
       </c>
       <c r="C14" s="86" t="n">
@@ -2333,20 +2374,23 @@
       <c r="E14" s="88" t="n">
         <v>-43.11</v>
       </c>
-      <c r="F14" s="70" t="n">
+      <c r="F14" s="71" t="n">
         <v>38.81</v>
       </c>
-      <c r="G14" s="58" t="n">
+      <c r="G14" s="59" t="n">
         <v>40.04</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="16" t="n">
         <v>41.1</v>
       </c>
-      <c r="I14" s="40" t="n">
+      <c r="I14" s="43" t="n">
         <v>43.12</v>
       </c>
-      <c r="J14" s="31" t="n">
+      <c r="J14" s="34" t="n">
         <v>-2.19</v>
+      </c>
+      <c r="K14" s="89" t="n">
+        <v>-2.54</v>
       </c>
     </row>
     <row r="15">
@@ -2355,32 +2399,35 @@
           <t>DBA</t>
         </is>
       </c>
-      <c r="B15" s="53" t="n">
+      <c r="B15" s="54" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="53" t="n">
+      <c r="C15" s="54" t="n">
         <v>-1.1</v>
       </c>
-      <c r="D15" s="89" t="n">
+      <c r="D15" s="90" t="n">
         <v>10.38</v>
       </c>
-      <c r="E15" s="90" t="n">
+      <c r="E15" s="91" t="n">
         <v>-3.38</v>
       </c>
-      <c r="F15" s="91" t="n">
+      <c r="F15" s="92" t="n">
         <v>74.59</v>
       </c>
-      <c r="G15" s="92" t="n">
+      <c r="G15" s="93" t="n">
         <v>64.92</v>
       </c>
-      <c r="H15" s="77" t="n">
+      <c r="H15" s="78" t="n">
         <v>58.92</v>
       </c>
-      <c r="I15" s="93" t="n">
+      <c r="I15" s="94" t="n">
         <v>51.72</v>
       </c>
-      <c r="J15" s="94" t="n">
+      <c r="J15" s="95" t="n">
         <v>0.18</v>
+      </c>
+      <c r="K15" s="58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
@@ -2389,31 +2436,34 @@
           <t>NIB</t>
         </is>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="C16" s="55" t="n">
+      <c r="C16" s="56" t="n">
         <v>0.8</v>
       </c>
-      <c r="D16" s="33" t="n">
+      <c r="D16" s="36" t="n">
         <v>29.77</v>
       </c>
-      <c r="E16" s="95" t="n">
+      <c r="E16" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="96" t="n">
+      <c r="F16" s="97" t="n">
         <v>80.11</v>
       </c>
-      <c r="G16" s="97" t="n">
+      <c r="G16" s="98" t="n">
         <v>71.34999999999999</v>
       </c>
-      <c r="H16" s="98" t="n">
+      <c r="H16" s="99" t="n">
         <v>67.76000000000001</v>
       </c>
-      <c r="I16" s="99" t="n">
+      <c r="I16" s="100" t="n">
         <v>61.21</v>
       </c>
-      <c r="J16" s="59" t="n">
+      <c r="J16" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2423,31 +2473,34 @@
           <t>WEAT</t>
         </is>
       </c>
-      <c r="B17" s="36" t="n">
+      <c r="B17" s="39" t="n">
         <v>-6.31</v>
       </c>
-      <c r="C17" s="74" t="n">
+      <c r="C17" s="75" t="n">
         <v>-4.84</v>
       </c>
-      <c r="D17" s="100" t="n">
+      <c r="D17" s="101" t="n">
         <v>5.54</v>
       </c>
-      <c r="E17" s="101" t="n">
+      <c r="E17" s="102" t="n">
         <v>-28.5</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="32" t="n">
         <v>49.71</v>
       </c>
-      <c r="G17" s="102" t="n">
+      <c r="G17" s="103" t="n">
         <v>47.99</v>
       </c>
-      <c r="H17" s="103" t="n">
+      <c r="H17" s="104" t="n">
         <v>48.03</v>
       </c>
-      <c r="I17" s="35" t="n">
+      <c r="I17" s="38" t="n">
         <v>47.4</v>
       </c>
-      <c r="J17" s="59" t="n">
+      <c r="J17" s="60" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2457,32 +2510,35 @@
           <t>CANE</t>
         </is>
       </c>
-      <c r="B18" s="104" t="n">
+      <c r="B18" s="105" t="n">
         <v>-0</v>
       </c>
-      <c r="C18" s="74" t="n">
+      <c r="C18" s="75" t="n">
         <v>-4.86</v>
       </c>
-      <c r="D18" s="105" t="n">
+      <c r="D18" s="106" t="n">
         <v>38.8</v>
       </c>
-      <c r="E18" s="106" t="n">
+      <c r="E18" s="107" t="n">
         <v>-10.34</v>
       </c>
-      <c r="F18" s="107" t="n">
+      <c r="F18" s="108" t="n">
         <v>63.65</v>
       </c>
-      <c r="G18" s="108" t="n">
+      <c r="G18" s="109" t="n">
         <v>61.11</v>
       </c>
-      <c r="H18" s="109" t="n">
+      <c r="H18" s="110" t="n">
         <v>56.75</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>51.16</v>
       </c>
-      <c r="J18" s="50" t="n">
+      <c r="J18" s="53" t="n">
         <v>0.23</v>
+      </c>
+      <c r="K18" s="38" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
@@ -2491,31 +2547,34 @@
           <t>JO</t>
         </is>
       </c>
-      <c r="B19" s="42" t="n">
+      <c r="B19" s="45" t="n">
         <v>-0.04</v>
       </c>
-      <c r="C19" s="110" t="n">
+      <c r="C19" s="111" t="n">
         <v>-0.04</v>
       </c>
       <c r="D19" s="88" t="n">
         <v>9.84</v>
       </c>
-      <c r="E19" s="32" t="n">
+      <c r="E19" s="35" t="n">
         <v>-8.23</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>51.31</v>
       </c>
-      <c r="G19" s="111" t="n">
+      <c r="G19" s="112" t="n">
         <v>49.76</v>
       </c>
-      <c r="H19" s="111" t="n">
+      <c r="H19" s="112" t="n">
         <v>50.19</v>
       </c>
-      <c r="I19" s="43" t="n">
+      <c r="I19" s="46" t="n">
         <v>50.88</v>
       </c>
-      <c r="J19" s="59" t="n">
+      <c r="J19" s="60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K19" s="30" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2525,22 +2584,22 @@
           <t>CORN</t>
         </is>
       </c>
-      <c r="B20" s="37" t="n">
+      <c r="B20" s="21" t="n">
         <v>-9.42</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="29" t="n">
         <v>-5.36</v>
       </c>
-      <c r="D20" s="112" t="n">
+      <c r="D20" s="89" t="n">
         <v>0.79</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="22" t="n">
         <v>-25.15</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="26" t="n">
         <v>39.43</v>
       </c>
-      <c r="G20" s="40" t="n">
+      <c r="G20" s="43" t="n">
         <v>37.4</v>
       </c>
       <c r="H20" s="113" t="n">
@@ -2552,6 +2611,9 @@
       <c r="J20" s="9" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K20" s="40" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2559,10 +2621,10 @@
           <t>SOYB</t>
         </is>
       </c>
-      <c r="B21" s="35" t="n">
+      <c r="B21" s="38" t="n">
         <v>-7.76</v>
       </c>
-      <c r="C21" s="104" t="n">
+      <c r="C21" s="105" t="n">
         <v>-1.68</v>
       </c>
       <c r="D21" s="115" t="n">
@@ -2583,8 +2645,11 @@
       <c r="I21" s="118" t="n">
         <v>42.99</v>
       </c>
-      <c r="J21" s="79" t="n">
+      <c r="J21" s="40" t="n">
         <v>-0.4</v>
+      </c>
+      <c r="K21" s="119" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="22">
@@ -2593,31 +2658,34 @@
           <t>BAL</t>
         </is>
       </c>
-      <c r="B22" s="93" t="n">
+      <c r="B22" s="94" t="n">
         <v>0.25</v>
       </c>
-      <c r="C22" s="45" t="n">
+      <c r="C22" s="48" t="n">
         <v>0.25</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="18" t="n">
         <v>11.51</v>
       </c>
-      <c r="E22" s="119" t="n">
+      <c r="E22" s="120" t="n">
         <v>-2.65</v>
       </c>
-      <c r="F22" s="42" t="n">
+      <c r="F22" s="45" t="n">
         <v>51.95</v>
       </c>
-      <c r="G22" s="53" t="n">
+      <c r="G22" s="54" t="n">
         <v>53.65</v>
       </c>
-      <c r="H22" s="120" t="n">
+      <c r="H22" s="121" t="n">
         <v>53.52</v>
       </c>
-      <c r="I22" s="121" t="n">
+      <c r="I22" s="122" t="n">
         <v>50.76</v>
       </c>
-      <c r="J22" s="59" t="n">
+      <c r="J22" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2627,31 +2695,34 @@
           <t>COW</t>
         </is>
       </c>
-      <c r="B23" s="120" t="n">
+      <c r="B23" s="121" t="n">
         <v>0.58</v>
       </c>
-      <c r="C23" s="122" t="n">
+      <c r="C23" s="123" t="n">
         <v>0.58</v>
       </c>
       <c r="D23" s="86" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="E23" s="123" t="n">
+      <c r="E23" s="124" t="n">
         <v>-1.81</v>
       </c>
-      <c r="F23" s="124" t="n">
+      <c r="F23" s="125" t="n">
         <v>67.26000000000001</v>
       </c>
-      <c r="G23" s="125" t="n">
+      <c r="G23" s="126" t="n">
         <v>63.49</v>
       </c>
-      <c r="H23" s="126" t="n">
+      <c r="H23" s="127" t="n">
         <v>60.33</v>
       </c>
-      <c r="I23" s="45" t="n">
+      <c r="I23" s="48" t="n">
         <v>53.13</v>
       </c>
-      <c r="J23" s="59" t="n">
+      <c r="J23" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2661,32 +2732,35 @@
           <t>SPY</t>
         </is>
       </c>
-      <c r="B24" s="49" t="n">
+      <c r="B24" s="52" t="n">
         <v>11.03</v>
       </c>
-      <c r="C24" s="127" t="n">
+      <c r="C24" s="128" t="n">
         <v>6.34</v>
       </c>
-      <c r="D24" s="46" t="n">
+      <c r="D24" s="49" t="n">
         <v>28.28</v>
       </c>
-      <c r="E24" s="95" t="n">
+      <c r="E24" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="128" t="n">
+      <c r="F24" s="129" t="n">
         <v>69.89</v>
       </c>
-      <c r="G24" s="129" t="n">
+      <c r="G24" s="130" t="n">
         <v>68.61</v>
       </c>
       <c r="H24" s="83" t="n">
         <v>67.67</v>
       </c>
-      <c r="I24" s="91" t="n">
+      <c r="I24" s="92" t="n">
         <v>61.29</v>
       </c>
-      <c r="J24" s="95" t="n">
+      <c r="J24" s="96" t="n">
         <v>5.79</v>
+      </c>
+      <c r="K24" s="96" t="n">
+        <v>5.21</v>
       </c>
     </row>
     <row r="25">
@@ -2695,32 +2769,35 @@
           <t>EWC</t>
         </is>
       </c>
-      <c r="B25" s="130" t="n">
+      <c r="B25" s="131" t="n">
         <v>4.99</v>
       </c>
-      <c r="C25" s="131" t="n">
+      <c r="C25" s="132" t="n">
         <v>3.94</v>
       </c>
-      <c r="D25" s="73" t="n">
+      <c r="D25" s="74" t="n">
         <v>15.6</v>
       </c>
-      <c r="E25" s="132" t="n">
+      <c r="E25" s="133" t="n">
         <v>-1.3</v>
       </c>
-      <c r="F25" s="121" t="n">
+      <c r="F25" s="122" t="n">
         <v>50.43</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="94" t="n">
         <v>52.91</v>
       </c>
-      <c r="H25" s="133" t="n">
+      <c r="H25" s="134" t="n">
         <v>54.36</v>
       </c>
-      <c r="I25" s="109" t="n">
+      <c r="I25" s="110" t="n">
         <v>53.97</v>
       </c>
-      <c r="J25" s="134" t="n">
+      <c r="J25" s="135" t="n">
         <v>0.14</v>
+      </c>
+      <c r="K25" s="136" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="26">
@@ -2729,32 +2806,35 @@
           <t>EWO</t>
         </is>
       </c>
-      <c r="B26" s="38" t="n">
+      <c r="B26" s="41" t="n">
         <v>3.37</v>
       </c>
-      <c r="C26" s="131" t="n">
+      <c r="C26" s="132" t="n">
         <v>3.97</v>
       </c>
-      <c r="D26" s="135" t="n">
+      <c r="D26" s="137" t="n">
         <v>12.5</v>
       </c>
-      <c r="E26" s="90" t="n">
+      <c r="E26" s="91" t="n">
         <v>-3.2</v>
       </c>
-      <c r="F26" s="102" t="n">
+      <c r="F26" s="103" t="n">
         <v>46.13</v>
       </c>
-      <c r="G26" s="136" t="n">
+      <c r="G26" s="138" t="n">
         <v>48.35</v>
       </c>
-      <c r="H26" s="46" t="n">
+      <c r="H26" s="49" t="n">
         <v>49.97</v>
       </c>
-      <c r="I26" s="137" t="n">
+      <c r="I26" s="139" t="n">
         <v>52.17</v>
       </c>
-      <c r="J26" s="59" t="n">
+      <c r="J26" s="60" t="n">
         <v>-0</v>
+      </c>
+      <c r="K26" s="20" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
@@ -2763,32 +2843,35 @@
           <t>EWK</t>
         </is>
       </c>
-      <c r="B27" s="42" t="n">
+      <c r="B27" s="45" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C27" s="138" t="n">
+      <c r="C27" s="140" t="n">
         <v>2.18</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="18" t="n">
         <v>11.37</v>
       </c>
       <c r="E27" s="83" t="n">
         <v>-6.92</v>
       </c>
-      <c r="F27" s="56" t="n">
+      <c r="F27" s="57" t="n">
         <v>35.22</v>
       </c>
-      <c r="G27" s="64" t="n">
+      <c r="G27" s="65" t="n">
         <v>40.74</v>
       </c>
       <c r="H27" s="9" t="n">
         <v>44.42</v>
       </c>
-      <c r="I27" s="101" t="n">
+      <c r="I27" s="102" t="n">
         <v>49.54</v>
       </c>
-      <c r="J27" s="51" t="n">
+      <c r="J27" s="11" t="n">
         <v>-0.11</v>
+      </c>
+      <c r="K27" s="21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="28">
@@ -2797,33 +2880,36 @@
           <t>EDEN</t>
         </is>
       </c>
-      <c r="B28" s="139" t="n">
+      <c r="B28" s="141" t="n">
         <v>7.82</v>
       </c>
-      <c r="C28" s="140" t="n">
+      <c r="C28" s="142" t="n">
         <v>4.32</v>
       </c>
-      <c r="D28" s="37" t="n">
+      <c r="D28" s="21" t="n">
         <v>20.45</v>
       </c>
-      <c r="E28" s="141" t="n">
+      <c r="E28" s="143" t="n">
         <v>-1.5</v>
       </c>
-      <c r="F28" s="62" t="n">
+      <c r="F28" s="63" t="n">
         <v>57.14</v>
       </c>
-      <c r="G28" s="77" t="n">
+      <c r="G28" s="78" t="n">
         <v>59.37</v>
       </c>
-      <c r="H28" s="126" t="n">
+      <c r="H28" s="127" t="n">
         <v>60.41</v>
       </c>
-      <c r="I28" s="142" t="n">
+      <c r="I28" s="144" t="n">
         <v>57.07</v>
       </c>
       <c r="J28" s="8" t="n">
         <v>1.04</v>
       </c>
+      <c r="K28" s="36" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2831,32 +2917,35 @@
           <t>EFNL</t>
         </is>
       </c>
-      <c r="B29" s="143" t="n">
+      <c r="B29" s="145" t="n">
         <v>0.45</v>
       </c>
-      <c r="C29" s="144" t="n">
+      <c r="C29" s="146" t="n">
         <v>1.53</v>
       </c>
-      <c r="D29" s="145" t="n">
+      <c r="D29" s="147" t="n">
         <v>14.08</v>
       </c>
-      <c r="E29" s="146" t="n">
+      <c r="E29" s="148" t="n">
         <v>-11.13</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="16" t="n">
         <v>35.66</v>
       </c>
-      <c r="G29" s="51" t="n">
+      <c r="G29" s="11" t="n">
         <v>43.96</v>
       </c>
-      <c r="H29" s="36" t="n">
+      <c r="H29" s="39" t="n">
         <v>47.66</v>
       </c>
-      <c r="I29" s="33" t="n">
+      <c r="I29" s="36" t="n">
         <v>50.39</v>
       </c>
-      <c r="J29" s="28" t="n">
+      <c r="J29" s="30" t="n">
         <v>-0.06</v>
+      </c>
+      <c r="K29" s="20" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="30">
@@ -2865,32 +2954,35 @@
           <t>EWQ</t>
         </is>
       </c>
-      <c r="B30" s="45" t="n">
+      <c r="B30" s="48" t="n">
         <v>2.91</v>
       </c>
-      <c r="C30" s="147" t="n">
+      <c r="C30" s="149" t="n">
         <v>2.51</v>
       </c>
-      <c r="D30" s="56" t="n">
+      <c r="D30" s="57" t="n">
         <v>14.34</v>
       </c>
-      <c r="E30" s="90" t="n">
+      <c r="E30" s="91" t="n">
         <v>-3.36</v>
       </c>
-      <c r="F30" s="121" t="n">
+      <c r="F30" s="122" t="n">
         <v>50.42</v>
       </c>
-      <c r="G30" s="20" t="n">
+      <c r="G30" s="22" t="n">
         <v>52.29</v>
       </c>
-      <c r="H30" s="93" t="n">
+      <c r="H30" s="94" t="n">
         <v>53.15</v>
       </c>
-      <c r="I30" s="47" t="n">
+      <c r="I30" s="50" t="n">
         <v>52.97</v>
       </c>
-      <c r="J30" s="134" t="n">
+      <c r="J30" s="135" t="n">
         <v>0.14</v>
+      </c>
+      <c r="K30" s="58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="31">
@@ -2899,32 +2991,35 @@
           <t>EWG</t>
         </is>
       </c>
-      <c r="B31" s="21" t="n">
+      <c r="B31" s="23" t="n">
         <v>4.3</v>
       </c>
-      <c r="C31" s="126" t="n">
+      <c r="C31" s="127" t="n">
         <v>4.04</v>
       </c>
-      <c r="D31" s="148" t="n">
+      <c r="D31" s="119" t="n">
         <v>18.01</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="44" t="n">
         <v>-2.11</v>
       </c>
-      <c r="F31" s="149" t="n">
+      <c r="F31" s="150" t="n">
         <v>50.06</v>
       </c>
-      <c r="G31" s="44" t="n">
+      <c r="G31" s="47" t="n">
         <v>51.71</v>
       </c>
-      <c r="H31" s="143" t="n">
+      <c r="H31" s="145" t="n">
         <v>53.35</v>
       </c>
-      <c r="I31" s="105" t="n">
+      <c r="I31" s="106" t="n">
         <v>54.01</v>
       </c>
-      <c r="J31" s="150" t="n">
+      <c r="J31" s="136" t="n">
         <v>0.08</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -2939,16 +3034,16 @@
       <c r="C32" s="152" t="n">
         <v>4.94</v>
       </c>
-      <c r="D32" s="38" t="n">
+      <c r="D32" s="41" t="n">
         <v>37.01</v>
       </c>
-      <c r="E32" s="132" t="n">
+      <c r="E32" s="133" t="n">
         <v>-1.23</v>
       </c>
       <c r="F32" s="153" t="n">
         <v>68.43000000000001</v>
       </c>
-      <c r="G32" s="49" t="n">
+      <c r="G32" s="52" t="n">
         <v>63.21</v>
       </c>
       <c r="H32" s="116" t="n">
@@ -2957,8 +3052,11 @@
       <c r="I32" s="154" t="n">
         <v>56.64</v>
       </c>
-      <c r="J32" s="34" t="n">
+      <c r="J32" s="37" t="n">
         <v>0.44</v>
+      </c>
+      <c r="K32" s="39" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -2982,10 +3080,10 @@
       <c r="F33" s="153" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="G33" s="106" t="n">
+      <c r="G33" s="107" t="n">
         <v>65.92</v>
       </c>
-      <c r="H33" s="146" t="n">
+      <c r="H33" s="148" t="n">
         <v>64.11</v>
       </c>
       <c r="I33" s="157" t="n">
@@ -2994,6 +3092,9 @@
       <c r="J33" s="158" t="n">
         <v>0.99</v>
       </c>
+      <c r="K33" s="102" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3004,29 +3105,32 @@
       <c r="B34" s="81" t="n">
         <v>5.55</v>
       </c>
-      <c r="C34" s="142" t="n">
+      <c r="C34" s="144" t="n">
         <v>5.23</v>
       </c>
       <c r="D34" s="159" t="n">
         <v>19.72</v>
       </c>
-      <c r="E34" s="141" t="n">
+      <c r="E34" s="143" t="n">
         <v>-1.52</v>
       </c>
-      <c r="F34" s="133" t="n">
+      <c r="F34" s="134" t="n">
         <v>54.21</v>
       </c>
-      <c r="G34" s="42" t="n">
+      <c r="G34" s="45" t="n">
         <v>52.59</v>
       </c>
-      <c r="H34" s="93" t="n">
+      <c r="H34" s="94" t="n">
         <v>53.18</v>
       </c>
-      <c r="I34" s="109" t="n">
+      <c r="I34" s="110" t="n">
         <v>53.96</v>
       </c>
-      <c r="J34" s="57" t="n">
+      <c r="J34" s="58" t="n">
         <v>0.04</v>
+      </c>
+      <c r="K34" s="30" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
@@ -3035,32 +3139,35 @@
           <t>EWN</t>
         </is>
       </c>
-      <c r="B35" s="107" t="n">
+      <c r="B35" s="108" t="n">
         <v>9.390000000000001</v>
       </c>
       <c r="C35" s="152" t="n">
         <v>4.97</v>
       </c>
-      <c r="D35" s="103" t="n">
+      <c r="D35" s="104" t="n">
         <v>25.29</v>
       </c>
-      <c r="E35" s="96" t="n">
+      <c r="E35" s="97" t="n">
         <v>-0.61</v>
       </c>
       <c r="F35" s="160" t="n">
         <v>64.51000000000001</v>
       </c>
-      <c r="G35" s="127" t="n">
+      <c r="G35" s="128" t="n">
         <v>64.08</v>
       </c>
       <c r="H35" s="157" t="n">
         <v>63</v>
       </c>
-      <c r="I35" s="49" t="n">
+      <c r="I35" s="52" t="n">
         <v>57.36</v>
       </c>
-      <c r="J35" s="74" t="n">
+      <c r="J35" s="75" t="n">
         <v>0.68</v>
+      </c>
+      <c r="K35" s="161" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="36">
@@ -3069,32 +3176,35 @@
           <t>ENOR</t>
         </is>
       </c>
-      <c r="B36" s="20" t="n">
+      <c r="B36" s="22" t="n">
         <v>-0.47</v>
       </c>
-      <c r="C36" s="161" t="n">
+      <c r="C36" s="162" t="n">
         <v>2.38</v>
       </c>
-      <c r="D36" s="162" t="n">
+      <c r="D36" s="163" t="n">
         <v>6.85</v>
       </c>
-      <c r="E36" s="32" t="n">
+      <c r="E36" s="35" t="n">
         <v>-8.17</v>
       </c>
-      <c r="F36" s="40" t="n">
+      <c r="F36" s="43" t="n">
         <v>32.74</v>
       </c>
-      <c r="G36" s="56" t="n">
+      <c r="G36" s="57" t="n">
         <v>39.38</v>
       </c>
-      <c r="H36" s="148" t="n">
+      <c r="H36" s="119" t="n">
         <v>43.18</v>
       </c>
-      <c r="I36" s="163" t="n">
+      <c r="I36" s="161" t="n">
         <v>48.73</v>
       </c>
-      <c r="J36" s="52" t="n">
+      <c r="J36" s="31" t="n">
         <v>-0.16</v>
+      </c>
+      <c r="K36" s="21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="37">
@@ -3103,7 +3213,7 @@
           <t>PGAL</t>
         </is>
       </c>
-      <c r="B37" s="143" t="n">
+      <c r="B37" s="145" t="n">
         <v>0.44</v>
       </c>
       <c r="C37" s="164" t="n">
@@ -3115,19 +3225,22 @@
       <c r="E37" s="5" t="n">
         <v>-7.12</v>
       </c>
-      <c r="F37" s="74" t="n">
+      <c r="F37" s="75" t="n">
         <v>46.4</v>
       </c>
       <c r="G37" s="155" t="n">
         <v>46.25</v>
       </c>
-      <c r="H37" s="34" t="n">
+      <c r="H37" s="37" t="n">
         <v>47.82</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>50.32</v>
       </c>
-      <c r="J37" s="28" t="n">
+      <c r="J37" s="30" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="K37" s="11" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3137,7 +3250,7 @@
           <t>EWP</t>
         </is>
       </c>
-      <c r="B38" s="55" t="n">
+      <c r="B38" s="56" t="n">
         <v>3.75</v>
       </c>
       <c r="C38" s="166" t="n">
@@ -3149,7 +3262,7 @@
       <c r="E38" s="168" t="n">
         <v>-4.99</v>
       </c>
-      <c r="F38" s="120" t="n">
+      <c r="F38" s="121" t="n">
         <v>53.01</v>
       </c>
       <c r="G38" s="169" t="n">
@@ -3158,11 +3271,14 @@
       <c r="H38" s="169" t="n">
         <v>48.54</v>
       </c>
-      <c r="I38" s="137" t="n">
+      <c r="I38" s="139" t="n">
         <v>52.18</v>
       </c>
-      <c r="J38" s="52" t="n">
+      <c r="J38" s="31" t="n">
         <v>-0.16</v>
+      </c>
+      <c r="K38" s="159" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="39">
@@ -3177,26 +3293,29 @@
       <c r="C39" s="171" t="n">
         <v>7.67</v>
       </c>
-      <c r="D39" s="59" t="n">
+      <c r="D39" s="60" t="n">
         <v>21.72</v>
       </c>
       <c r="E39" s="172" t="n">
         <v>-6.13</v>
       </c>
-      <c r="F39" s="137" t="n">
+      <c r="F39" s="139" t="n">
         <v>53.7</v>
       </c>
-      <c r="G39" s="33" t="n">
+      <c r="G39" s="36" t="n">
         <v>50.52</v>
       </c>
-      <c r="H39" s="121" t="n">
+      <c r="H39" s="122" t="n">
         <v>51.63</v>
       </c>
       <c r="I39" s="173" t="n">
         <v>53.64</v>
       </c>
-      <c r="J39" s="19" t="n">
+      <c r="J39" s="20" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+      <c r="K39" s="174" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="40">
@@ -3205,32 +3324,35 @@
           <t>EWL</t>
         </is>
       </c>
-      <c r="B40" s="45" t="n">
+      <c r="B40" s="48" t="n">
         <v>3.04</v>
       </c>
-      <c r="C40" s="147" t="n">
+      <c r="C40" s="149" t="n">
         <v>2.55</v>
       </c>
-      <c r="D40" s="174" t="n">
+      <c r="D40" s="175" t="n">
         <v>13.75</v>
       </c>
-      <c r="E40" s="175" t="n">
+      <c r="E40" s="176" t="n">
         <v>-3.07</v>
       </c>
       <c r="F40" s="169" t="n">
         <v>45.96</v>
       </c>
-      <c r="G40" s="111" t="n">
+      <c r="G40" s="112" t="n">
         <v>49.67</v>
       </c>
-      <c r="H40" s="44" t="n">
+      <c r="H40" s="47" t="n">
         <v>52.02</v>
       </c>
-      <c r="I40" s="122" t="n">
+      <c r="I40" s="123" t="n">
         <v>53.39</v>
       </c>
-      <c r="J40" s="35" t="n">
+      <c r="J40" s="38" t="n">
         <v>0.13</v>
+      </c>
+      <c r="K40" s="136" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
@@ -3239,32 +3361,35 @@
           <t>EWU</t>
         </is>
       </c>
-      <c r="B41" s="120" t="n">
+      <c r="B41" s="121" t="n">
         <v>0.59</v>
       </c>
-      <c r="C41" s="21" t="n">
+      <c r="C41" s="23" t="n">
         <v>1.18</v>
       </c>
-      <c r="D41" s="176" t="n">
+      <c r="D41" s="177" t="n">
         <v>7.45</v>
       </c>
-      <c r="E41" s="97" t="n">
+      <c r="E41" s="98" t="n">
         <v>-4.33</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>49.18</v>
       </c>
-      <c r="G41" s="101" t="n">
+      <c r="G41" s="102" t="n">
         <v>49.2</v>
       </c>
-      <c r="H41" s="101" t="n">
+      <c r="H41" s="102" t="n">
         <v>49.78</v>
       </c>
-      <c r="I41" s="121" t="n">
+      <c r="I41" s="122" t="n">
         <v>50.77</v>
       </c>
-      <c r="J41" s="59" t="n">
+      <c r="J41" s="60" t="n">
         <v>-0.02</v>
+      </c>
+      <c r="K41" s="11" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42">
@@ -3273,7 +3398,7 @@
           <t>EIS</t>
         </is>
       </c>
-      <c r="B42" s="177" t="n">
+      <c r="B42" s="178" t="n">
         <v>8.220000000000001</v>
       </c>
       <c r="C42" s="160" t="n">
@@ -3282,23 +3407,26 @@
       <c r="D42" s="3" t="n">
         <v>31.78</v>
       </c>
-      <c r="E42" s="141" t="n">
+      <c r="E42" s="143" t="n">
         <v>-1.5</v>
       </c>
-      <c r="F42" s="178" t="n">
+      <c r="F42" s="179" t="n">
         <v>60.8</v>
       </c>
-      <c r="G42" s="139" t="n">
+      <c r="G42" s="141" t="n">
         <v>60</v>
       </c>
-      <c r="H42" s="179" t="n">
+      <c r="H42" s="180" t="n">
         <v>60.07</v>
       </c>
-      <c r="I42" s="39" t="n">
+      <c r="I42" s="42" t="n">
         <v>55.53</v>
       </c>
-      <c r="J42" s="27" t="n">
+      <c r="J42" s="29" t="n">
         <v>0.54</v>
+      </c>
+      <c r="K42" s="61" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="43">
@@ -3307,16 +3435,16 @@
           <t>EWA</t>
         </is>
       </c>
-      <c r="B43" s="144" t="n">
+      <c r="B43" s="146" t="n">
         <v>4.82</v>
       </c>
-      <c r="C43" s="107" t="n">
+      <c r="C43" s="108" t="n">
         <v>4.61</v>
       </c>
-      <c r="D43" s="15" t="n">
+      <c r="D43" s="16" t="n">
         <v>14.84</v>
       </c>
-      <c r="E43" s="180" t="n">
+      <c r="E43" s="181" t="n">
         <v>-3.91</v>
       </c>
       <c r="F43" s="84" t="n">
@@ -3328,12 +3456,15 @@
       <c r="H43" s="85" t="n">
         <v>52.22</v>
       </c>
-      <c r="I43" s="47" t="n">
+      <c r="I43" s="50" t="n">
         <v>53.06</v>
       </c>
       <c r="J43" s="10" t="n">
         <v>0.03</v>
       </c>
+      <c r="K43" s="30" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3341,22 +3472,22 @@
           <t>EWH</t>
         </is>
       </c>
-      <c r="B44" s="73" t="n">
+      <c r="B44" s="74" t="n">
         <v>-13.22</v>
       </c>
-      <c r="C44" s="181" t="n">
+      <c r="C44" s="174" t="n">
         <v>-8.210000000000001</v>
       </c>
       <c r="D44" s="182" t="n">
         <v>1.69</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E44" s="12" t="n">
         <v>-28.38</v>
       </c>
-      <c r="F44" s="64" t="n">
+      <c r="F44" s="65" t="n">
         <v>36.98</v>
       </c>
-      <c r="G44" s="145" t="n">
+      <c r="G44" s="147" t="n">
         <v>38.89</v>
       </c>
       <c r="H44" s="165" t="n">
@@ -3368,6 +3499,9 @@
       <c r="J44" s="9" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K44" s="26" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3378,13 +3512,13 @@
       <c r="B45" s="183" t="n">
         <v>7.46</v>
       </c>
-      <c r="C45" s="179" t="n">
+      <c r="C45" s="180" t="n">
         <v>3.9</v>
       </c>
-      <c r="D45" s="19" t="n">
+      <c r="D45" s="20" t="n">
         <v>21.06</v>
       </c>
-      <c r="E45" s="96" t="n">
+      <c r="E45" s="97" t="n">
         <v>-0.61</v>
       </c>
       <c r="F45" s="184" t="n">
@@ -3396,11 +3530,14 @@
       <c r="H45" s="185" t="n">
         <v>59.72</v>
       </c>
-      <c r="I45" s="140" t="n">
+      <c r="I45" s="142" t="n">
         <v>56.41</v>
       </c>
-      <c r="J45" s="74" t="n">
+      <c r="J45" s="75" t="n">
         <v>0.66</v>
+      </c>
+      <c r="K45" s="138" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="46">
@@ -3409,32 +3546,35 @@
           <t>ENZL</t>
         </is>
       </c>
-      <c r="B46" s="44" t="n">
+      <c r="B46" s="47" t="n">
         <v>-1.02</v>
       </c>
       <c r="C46" s="173" t="n">
         <v>0.88</v>
       </c>
-      <c r="D46" s="48" t="n">
+      <c r="D46" s="51" t="n">
         <v>12.79</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>-10.52</v>
       </c>
-      <c r="F46" s="28" t="n">
+      <c r="F46" s="30" t="n">
         <v>41.72</v>
       </c>
-      <c r="G46" s="19" t="n">
+      <c r="G46" s="20" t="n">
         <v>44.23</v>
       </c>
-      <c r="H46" s="50" t="n">
+      <c r="H46" s="53" t="n">
         <v>46.81</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="12" t="n">
         <v>49.7</v>
       </c>
-      <c r="J46" s="37" t="n">
+      <c r="J46" s="21" t="n">
         <v>-0.2</v>
+      </c>
+      <c r="K46" s="174" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="47">
@@ -3443,32 +3583,35 @@
           <t>EWS</t>
         </is>
       </c>
-      <c r="B47" s="111" t="n">
+      <c r="B47" s="112" t="n">
         <v>-3.16</v>
       </c>
       <c r="C47" s="85" t="n">
         <v>-2.37</v>
       </c>
-      <c r="D47" s="61" t="n">
+      <c r="D47" s="62" t="n">
         <v>3.89</v>
       </c>
-      <c r="E47" s="124" t="n">
+      <c r="E47" s="125" t="n">
         <v>-11.56</v>
       </c>
-      <c r="F47" s="45" t="n">
+      <c r="F47" s="48" t="n">
         <v>55.62</v>
       </c>
-      <c r="G47" s="101" t="n">
+      <c r="G47" s="102" t="n">
         <v>49.17</v>
       </c>
-      <c r="H47" s="163" t="n">
+      <c r="H47" s="161" t="n">
         <v>48.44</v>
       </c>
-      <c r="I47" s="66" t="n">
+      <c r="I47" s="67" t="n">
         <v>48.18</v>
       </c>
-      <c r="J47" s="19" t="n">
+      <c r="J47" s="20" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+      <c r="K47" s="31" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="48">
@@ -3480,16 +3623,16 @@
       <c r="B48" s="154" t="n">
         <v>9.59</v>
       </c>
-      <c r="C48" s="127" t="n">
+      <c r="C48" s="128" t="n">
         <v>6.25</v>
       </c>
       <c r="D48" s="186" t="n">
         <v>27.68</v>
       </c>
-      <c r="E48" s="132" t="n">
+      <c r="E48" s="133" t="n">
         <v>-1.28</v>
       </c>
-      <c r="F48" s="129" t="n">
+      <c r="F48" s="130" t="n">
         <v>72.34</v>
       </c>
       <c r="G48" s="152" t="n">
@@ -3498,11 +3641,14 @@
       <c r="H48" s="185" t="n">
         <v>59.78</v>
       </c>
-      <c r="I48" s="131" t="n">
+      <c r="I48" s="132" t="n">
         <v>56.05</v>
       </c>
-      <c r="J48" s="103" t="n">
+      <c r="J48" s="104" t="n">
         <v>0.51</v>
+      </c>
+      <c r="K48" s="135" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="49">
@@ -3523,13 +3669,13 @@
       <c r="E49" s="188" t="n">
         <v>-8.380000000000001</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="27" t="n">
         <v>37.23</v>
       </c>
-      <c r="G49" s="18" t="n">
+      <c r="G49" s="19" t="n">
         <v>40.32</v>
       </c>
-      <c r="H49" s="70" t="n">
+      <c r="H49" s="71" t="n">
         <v>43.48</v>
       </c>
       <c r="I49" s="2" t="n">
@@ -3538,6 +3684,9 @@
       <c r="J49" s="189" t="n">
         <v>-0.33</v>
       </c>
+      <c r="K49" s="40" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3545,13 +3694,13 @@
           <t>ECH</t>
         </is>
       </c>
-      <c r="B50" s="52" t="n">
+      <c r="B50" s="31" t="n">
         <v>-9.289999999999999</v>
       </c>
-      <c r="C50" s="29" t="n">
+      <c r="C50" s="32" t="n">
         <v>-3.1</v>
       </c>
-      <c r="D50" s="100" t="n">
+      <c r="D50" s="101" t="n">
         <v>5.51</v>
       </c>
       <c r="E50" s="190" t="n">
@@ -3566,11 +3715,14 @@
       <c r="H50" s="192" t="n">
         <v>37.28</v>
       </c>
-      <c r="I50" s="148" t="n">
+      <c r="I50" s="119" t="n">
         <v>45.52</v>
       </c>
-      <c r="J50" s="79" t="n">
+      <c r="J50" s="40" t="n">
         <v>-0.41</v>
+      </c>
+      <c r="K50" s="71" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="51">
@@ -3582,30 +3734,33 @@
       <c r="B51" s="185" t="n">
         <v>8.01</v>
       </c>
-      <c r="C51" s="128" t="n">
+      <c r="C51" s="129" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="D51" s="149" t="n">
+      <c r="D51" s="150" t="n">
         <v>30.4</v>
       </c>
-      <c r="E51" s="91" t="n">
+      <c r="E51" s="92" t="n">
         <v>-5.4</v>
       </c>
       <c r="F51" s="193" t="n">
         <v>35.37</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="60" t="n">
         <v>44.54</v>
       </c>
-      <c r="H51" s="136" t="n">
+      <c r="H51" s="138" t="n">
         <v>49.05</v>
       </c>
-      <c r="I51" s="38" t="n">
+      <c r="I51" s="41" t="n">
         <v>53.3</v>
       </c>
       <c r="J51" s="10" t="n">
         <v>0.03</v>
       </c>
+      <c r="K51" s="136" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3613,32 +3768,35 @@
           <t>EPU</t>
         </is>
       </c>
-      <c r="B52" s="178" t="n">
+      <c r="B52" s="179" t="n">
         <v>7.18</v>
       </c>
       <c r="C52" s="194" t="n">
         <v>5.45</v>
       </c>
-      <c r="D52" s="70" t="n">
+      <c r="D52" s="71" t="n">
         <v>18.47</v>
       </c>
       <c r="E52" s="195" t="n">
         <v>-2.88</v>
       </c>
-      <c r="F52" s="111" t="n">
+      <c r="F52" s="112" t="n">
         <v>48.39</v>
       </c>
-      <c r="G52" s="44" t="n">
+      <c r="G52" s="47" t="n">
         <v>51.72</v>
       </c>
-      <c r="H52" s="137" t="n">
+      <c r="H52" s="139" t="n">
         <v>54.04</v>
       </c>
       <c r="I52" s="164" t="n">
         <v>54.72</v>
       </c>
-      <c r="J52" s="134" t="n">
+      <c r="J52" s="135" t="n">
         <v>0.15</v>
+      </c>
+      <c r="K52" s="38" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="53">
@@ -3653,16 +3811,16 @@
       <c r="C53" s="197" t="n">
         <v>8.27</v>
       </c>
-      <c r="D53" s="42" t="n">
+      <c r="D53" s="45" t="n">
         <v>32.44</v>
       </c>
-      <c r="E53" s="95" t="n">
+      <c r="E53" s="96" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="198" t="n">
         <v>66.84</v>
       </c>
-      <c r="G53" s="49" t="n">
+      <c r="G53" s="52" t="n">
         <v>63.22</v>
       </c>
       <c r="H53" s="157" t="n">
@@ -3671,8 +3829,11 @@
       <c r="I53" s="199" t="n">
         <v>61.15</v>
       </c>
-      <c r="J53" s="60" t="n">
+      <c r="J53" s="61" t="n">
         <v>0.48</v>
+      </c>
+      <c r="K53" s="37" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="54">
@@ -3681,13 +3842,13 @@
           <t>MCHI</t>
         </is>
       </c>
-      <c r="B54" s="63" t="n">
+      <c r="B54" s="64" t="n">
         <v>-17.07</v>
       </c>
-      <c r="C54" s="78" t="n">
+      <c r="C54" s="79" t="n">
         <v>-9.32</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="14" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="200" t="n">
@@ -3699,14 +3860,17 @@
       <c r="G54" s="201" t="n">
         <v>34.03</v>
       </c>
-      <c r="H54" s="71" t="n">
+      <c r="H54" s="72" t="n">
         <v>35.92</v>
       </c>
       <c r="I54" s="192" t="n">
         <v>41.84</v>
       </c>
-      <c r="J54" s="58" t="n">
+      <c r="J54" s="59" t="n">
         <v>-0.88</v>
+      </c>
+      <c r="K54" s="193" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="55">
@@ -3718,29 +3882,32 @@
       <c r="B55" s="113" t="n">
         <v>-17.91</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="27" t="n">
         <v>-10</v>
       </c>
-      <c r="D55" s="13" t="n">
+      <c r="D55" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="94" t="n">
+      <c r="E55" s="95" t="n">
         <v>-32.45</v>
       </c>
-      <c r="F55" s="13" t="n">
+      <c r="F55" s="14" t="n">
         <v>21.59</v>
       </c>
-      <c r="G55" s="13" t="n">
+      <c r="G55" s="14" t="n">
         <v>28.66</v>
       </c>
-      <c r="H55" s="13" t="n">
+      <c r="H55" s="14" t="n">
         <v>31.25</v>
       </c>
-      <c r="I55" s="13" t="n">
+      <c r="I55" s="14" t="n">
         <v>38.15</v>
       </c>
-      <c r="J55" s="148" t="n">
+      <c r="J55" s="119" t="n">
         <v>-0.52</v>
+      </c>
+      <c r="K55" s="202" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="56">
@@ -3749,31 +3916,34 @@
           <t>EIDO</t>
         </is>
       </c>
-      <c r="B56" s="33" t="n">
+      <c r="B56" s="36" t="n">
         <v>-2.18</v>
       </c>
-      <c r="C56" s="44" t="n">
+      <c r="C56" s="47" t="n">
         <v>-2.4</v>
       </c>
       <c r="D56" s="88" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="E56" s="202" t="n">
+      <c r="E56" s="203" t="n">
         <v>-10.87</v>
       </c>
-      <c r="F56" s="109" t="n">
+      <c r="F56" s="110" t="n">
         <v>57.61</v>
       </c>
       <c r="G56" s="85" t="n">
         <v>51.79</v>
       </c>
-      <c r="H56" s="203" t="n">
+      <c r="H56" s="204" t="n">
         <v>51.35</v>
       </c>
       <c r="I56" s="186" t="n">
         <v>49.48</v>
       </c>
-      <c r="J56" s="28" t="n">
+      <c r="J56" s="30" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="K56" s="11" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3783,16 +3953,16 @@
           <t>EWY</t>
         </is>
       </c>
-      <c r="B57" s="143" t="n">
+      <c r="B57" s="145" t="n">
         <v>0.54</v>
       </c>
-      <c r="C57" s="30" t="n">
+      <c r="C57" s="33" t="n">
         <v>-0.12</v>
       </c>
       <c r="D57" s="193" t="n">
         <v>14.59</v>
       </c>
-      <c r="E57" s="204" t="n">
+      <c r="E57" s="205" t="n">
         <v>-7.79</v>
       </c>
       <c r="F57" s="5" t="n">
@@ -3801,7 +3971,7 @@
       <c r="G57" s="170" t="n">
         <v>58.99</v>
       </c>
-      <c r="H57" s="30" t="n">
+      <c r="H57" s="33" t="n">
         <v>54.92</v>
       </c>
       <c r="I57" s="85" t="n">
@@ -3810,6 +3980,9 @@
       <c r="J57" s="9" t="n">
         <v>-0.24</v>
       </c>
+      <c r="K57" s="59" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3817,32 +3990,35 @@
           <t>EWM</t>
         </is>
       </c>
-      <c r="B58" s="53" t="n">
+      <c r="B58" s="54" t="n">
         <v>0.96</v>
       </c>
       <c r="C58" s="173" t="n">
         <v>0.95</v>
       </c>
-      <c r="D58" s="162" t="n">
+      <c r="D58" s="163" t="n">
         <v>6.8</v>
       </c>
-      <c r="E58" s="205" t="n">
+      <c r="E58" s="206" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="F58" s="68" t="n">
+      <c r="F58" s="69" t="n">
         <v>53.83</v>
       </c>
-      <c r="G58" s="149" t="n">
+      <c r="G58" s="150" t="n">
         <v>51.16</v>
       </c>
       <c r="H58" s="8" t="n">
         <v>50.77</v>
       </c>
-      <c r="I58" s="33" t="n">
+      <c r="I58" s="36" t="n">
         <v>50.35</v>
       </c>
-      <c r="J58" s="59" t="n">
+      <c r="J58" s="60" t="n">
         <v>-0.01</v>
+      </c>
+      <c r="K58" s="20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="59">
@@ -3851,31 +4027,34 @@
           <t>EPHE</t>
         </is>
       </c>
-      <c r="B59" s="21" t="n">
+      <c r="B59" s="23" t="n">
         <v>4.31</v>
       </c>
       <c r="C59" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="D59" s="56" t="n">
+      <c r="D59" s="57" t="n">
         <v>14.4</v>
       </c>
-      <c r="E59" s="98" t="n">
+      <c r="E59" s="99" t="n">
         <v>-6.63</v>
       </c>
-      <c r="F59" s="206" t="n">
+      <c r="F59" s="207" t="n">
         <v>65.12</v>
       </c>
-      <c r="G59" s="179" t="n">
+      <c r="G59" s="180" t="n">
         <v>60.6</v>
       </c>
-      <c r="H59" s="177" t="n">
+      <c r="H59" s="178" t="n">
         <v>59.84</v>
       </c>
       <c r="I59" s="81" t="n">
         <v>54.52</v>
       </c>
-      <c r="J59" s="134" t="n">
+      <c r="J59" s="135" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K59" s="38" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3891,26 +4070,29 @@
       <c r="C60" s="187" t="n">
         <v>-0.23</v>
       </c>
-      <c r="D60" s="207" t="n">
+      <c r="D60" s="208" t="n">
         <v>5.69</v>
       </c>
-      <c r="E60" s="202" t="n">
+      <c r="E60" s="203" t="n">
         <v>-10.77</v>
       </c>
       <c r="F60" s="85" t="n">
         <v>51.2</v>
       </c>
-      <c r="G60" s="208" t="n">
+      <c r="G60" s="209" t="n">
         <v>48.67</v>
       </c>
-      <c r="H60" s="66" t="n">
+      <c r="H60" s="67" t="n">
         <v>47.45</v>
       </c>
-      <c r="I60" s="36" t="n">
+      <c r="I60" s="39" t="n">
         <v>48.21</v>
       </c>
-      <c r="J60" s="52" t="n">
+      <c r="J60" s="31" t="n">
         <v>-0.14</v>
+      </c>
+      <c r="K60" s="210" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="61">
@@ -3919,7 +4101,7 @@
           <t>THD</t>
         </is>
       </c>
-      <c r="B61" s="94" t="n">
+      <c r="B61" s="95" t="n">
         <v>-7.32</v>
       </c>
       <c r="C61" s="169" t="n">
@@ -3931,20 +4113,23 @@
       <c r="E61" s="187" t="n">
         <v>-22.49</v>
       </c>
-      <c r="F61" s="75" t="n">
+      <c r="F61" s="76" t="n">
         <v>51.79</v>
       </c>
-      <c r="G61" s="94" t="n">
+      <c r="G61" s="95" t="n">
         <v>45.6</v>
       </c>
-      <c r="H61" s="19" t="n">
+      <c r="H61" s="20" t="n">
         <v>45.25</v>
       </c>
-      <c r="I61" s="209" t="n">
+      <c r="I61" s="210" t="n">
         <v>45.77</v>
       </c>
-      <c r="J61" s="26" t="n">
+      <c r="J61" s="28" t="n">
         <v>-0.62</v>
+      </c>
+      <c r="K61" s="74" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="62">
@@ -3953,32 +4138,35 @@
           <t>EPOL</t>
         </is>
       </c>
-      <c r="B62" s="210" t="n">
+      <c r="B62" s="211" t="n">
         <v>14.56</v>
       </c>
-      <c r="C62" s="180" t="n">
+      <c r="C62" s="181" t="n">
         <v>11.65</v>
       </c>
-      <c r="D62" s="211" t="n">
+      <c r="D62" s="212" t="n">
         <v>57.31</v>
       </c>
       <c r="E62" s="195" t="n">
         <v>-2.91</v>
       </c>
-      <c r="F62" s="95" t="n">
+      <c r="F62" s="96" t="n">
         <v>80.84</v>
       </c>
-      <c r="G62" s="212" t="n">
+      <c r="G62" s="213" t="n">
         <v>64.83</v>
       </c>
-      <c r="H62" s="179" t="n">
+      <c r="H62" s="180" t="n">
         <v>60</v>
       </c>
-      <c r="I62" s="140" t="n">
+      <c r="I62" s="142" t="n">
         <v>56.36</v>
       </c>
-      <c r="J62" s="150" t="n">
+      <c r="J62" s="136" t="n">
         <v>0.1</v>
+      </c>
+      <c r="K62" s="21" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="63">
@@ -3987,7 +4175,7 @@
           <t>TUR</t>
         </is>
       </c>
-      <c r="B63" s="161" t="n">
+      <c r="B63" s="162" t="n">
         <v>6.27</v>
       </c>
       <c r="C63" s="173" t="n">
@@ -3999,20 +4187,23 @@
       <c r="E63" s="197" t="n">
         <v>-9.220000000000001</v>
       </c>
-      <c r="F63" s="205" t="n">
+      <c r="F63" s="206" t="n">
         <v>69.37</v>
       </c>
-      <c r="G63" s="146" t="n">
+      <c r="G63" s="148" t="n">
         <v>65.19</v>
       </c>
-      <c r="H63" s="179" t="n">
+      <c r="H63" s="180" t="n">
         <v>60.07</v>
       </c>
-      <c r="I63" s="133" t="n">
+      <c r="I63" s="134" t="n">
         <v>52.36</v>
       </c>
-      <c r="J63" s="74" t="n">
+      <c r="J63" s="75" t="n">
         <v>0.66</v>
+      </c>
+      <c r="K63" s="37" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="64">
@@ -4021,32 +4212,35 @@
           <t>EZA</t>
         </is>
       </c>
-      <c r="B64" s="203" t="n">
+      <c r="B64" s="204" t="n">
         <v>-1.79</v>
       </c>
       <c r="C64" s="190" t="n">
         <v>0.38</v>
       </c>
-      <c r="D64" s="213" t="n">
+      <c r="D64" s="214" t="n">
         <v>7.91</v>
       </c>
-      <c r="E64" s="49" t="n">
+      <c r="E64" s="52" t="n">
         <v>-13.29</v>
       </c>
-      <c r="F64" s="46" t="n">
+      <c r="F64" s="49" t="n">
         <v>48.01</v>
       </c>
       <c r="G64" s="169" t="n">
         <v>47.81</v>
       </c>
-      <c r="H64" s="60" t="n">
+      <c r="H64" s="61" t="n">
         <v>47.98</v>
       </c>
-      <c r="I64" s="74" t="n">
+      <c r="I64" s="75" t="n">
         <v>49.02</v>
       </c>
-      <c r="J64" s="52" t="n">
+      <c r="J64" s="31" t="n">
         <v>-0.16</v>
+      </c>
+      <c r="K64" s="40" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="65">
@@ -4055,10 +4249,10 @@
           <t>XLE</t>
         </is>
       </c>
-      <c r="B65" s="44" t="n">
+      <c r="B65" s="47" t="n">
         <v>-1.11</v>
       </c>
-      <c r="C65" s="120" t="n">
+      <c r="C65" s="121" t="n">
         <v>-1.32</v>
       </c>
       <c r="D65" s="192" t="n">
@@ -4070,17 +4264,20 @@
       <c r="F65" s="190" t="n">
         <v>56.06</v>
       </c>
-      <c r="G65" s="104" t="n">
+      <c r="G65" s="105" t="n">
         <v>52.71</v>
       </c>
       <c r="H65" s="8" t="n">
         <v>50.69</v>
       </c>
-      <c r="I65" s="102" t="n">
+      <c r="I65" s="103" t="n">
         <v>49</v>
       </c>
-      <c r="J65" s="150" t="n">
+      <c r="J65" s="136" t="n">
         <v>0.1</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="66">
@@ -4089,16 +4286,16 @@
           <t>OIH</t>
         </is>
       </c>
-      <c r="B66" s="57" t="n">
+      <c r="B66" s="58" t="n">
         <v>-8.140000000000001</v>
       </c>
-      <c r="C66" s="29" t="n">
+      <c r="C66" s="32" t="n">
         <v>-3.06</v>
       </c>
-      <c r="D66" s="73" t="n">
+      <c r="D66" s="74" t="n">
         <v>15.74</v>
       </c>
-      <c r="E66" s="38" t="n">
+      <c r="E66" s="41" t="n">
         <v>-21.16</v>
       </c>
       <c r="F66" s="192" t="n">
@@ -4107,14 +4304,17 @@
       <c r="G66" s="114" t="n">
         <v>37.73</v>
       </c>
-      <c r="H66" s="214" t="n">
+      <c r="H66" s="215" t="n">
         <v>39.82</v>
       </c>
-      <c r="I66" s="72" t="n">
+      <c r="I66" s="73" t="n">
         <v>45.35</v>
       </c>
-      <c r="J66" s="13" t="n">
+      <c r="J66" s="14" t="n">
         <v>-3.03</v>
+      </c>
+      <c r="K66" s="14" t="n">
+        <v>-2.64</v>
       </c>
     </row>
     <row r="67">
@@ -4123,13 +4323,13 @@
           <t>XOP</t>
         </is>
       </c>
-      <c r="B67" s="208" t="n">
+      <c r="B67" s="209" t="n">
         <v>-4.29</v>
       </c>
-      <c r="C67" s="93" t="n">
+      <c r="C67" s="94" t="n">
         <v>-1.49</v>
       </c>
-      <c r="D67" s="135" t="n">
+      <c r="D67" s="137" t="n">
         <v>12.44</v>
       </c>
       <c r="E67" s="151" t="n">
@@ -4141,14 +4341,17 @@
       <c r="G67" s="189" t="n">
         <v>42.89</v>
       </c>
-      <c r="H67" s="70" t="n">
+      <c r="H67" s="71" t="n">
         <v>43.54</v>
       </c>
-      <c r="I67" s="28" t="n">
+      <c r="I67" s="30" t="n">
         <v>46.96</v>
       </c>
-      <c r="J67" s="58" t="n">
+      <c r="J67" s="59" t="n">
         <v>-0.86</v>
+      </c>
+      <c r="K67" s="51" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="68">
@@ -4157,10 +4360,10 @@
           <t>XLU</t>
         </is>
       </c>
-      <c r="B68" s="111" t="n">
+      <c r="B68" s="112" t="n">
         <v>-3.27</v>
       </c>
-      <c r="C68" s="53" t="n">
+      <c r="C68" s="54" t="n">
         <v>-1.06</v>
       </c>
       <c r="D68" s="113" t="n">
@@ -4169,20 +4372,23 @@
       <c r="E68" s="198" t="n">
         <v>-12.12</v>
       </c>
-      <c r="F68" s="136" t="n">
+      <c r="F68" s="138" t="n">
         <v>46.63</v>
       </c>
-      <c r="G68" s="150" t="n">
+      <c r="G68" s="136" t="n">
         <v>45.19</v>
       </c>
-      <c r="H68" s="150" t="n">
+      <c r="H68" s="136" t="n">
         <v>46.03</v>
       </c>
       <c r="I68" s="155" t="n">
         <v>47.98</v>
       </c>
-      <c r="J68" s="79" t="n">
+      <c r="J68" s="40" t="n">
         <v>-0.41</v>
+      </c>
+      <c r="K68" s="73" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="69">
@@ -4191,32 +4397,35 @@
           <t>XLP</t>
         </is>
       </c>
-      <c r="B69" s="47" t="n">
+      <c r="B69" s="50" t="n">
         <v>2.77</v>
       </c>
       <c r="C69" s="80" t="n">
         <v>-0.4</v>
       </c>
-      <c r="D69" s="40" t="n">
+      <c r="D69" s="43" t="n">
         <v>12.01</v>
       </c>
-      <c r="E69" s="97" t="n">
+      <c r="E69" s="98" t="n">
         <v>-4.3</v>
       </c>
-      <c r="F69" s="92" t="n">
+      <c r="F69" s="93" t="n">
         <v>67.79000000000001</v>
       </c>
-      <c r="G69" s="127" t="n">
+      <c r="G69" s="128" t="n">
         <v>64.13</v>
       </c>
-      <c r="H69" s="206" t="n">
+      <c r="H69" s="207" t="n">
         <v>62.19</v>
       </c>
-      <c r="I69" s="138" t="n">
+      <c r="I69" s="140" t="n">
         <v>54.64</v>
       </c>
-      <c r="J69" s="163" t="n">
+      <c r="J69" s="161" t="n">
         <v>0.58</v>
+      </c>
+      <c r="K69" s="37" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="70">
@@ -4225,32 +4434,35 @@
           <t>FTXG</t>
         </is>
       </c>
-      <c r="B70" s="46" t="n">
+      <c r="B70" s="49" t="n">
         <v>-3.34</v>
       </c>
       <c r="C70" s="8" t="n">
         <v>-3.51</v>
       </c>
-      <c r="D70" s="16" t="n">
+      <c r="D70" s="17" t="n">
         <v>11.21</v>
       </c>
       <c r="E70" s="194" t="n">
         <v>-13.65</v>
       </c>
-      <c r="F70" s="130" t="n">
+      <c r="F70" s="131" t="n">
         <v>58.17</v>
       </c>
-      <c r="G70" s="143" t="n">
+      <c r="G70" s="145" t="n">
         <v>53.06</v>
       </c>
       <c r="H70" s="85" t="n">
         <v>52.25</v>
       </c>
-      <c r="I70" s="102" t="n">
+      <c r="I70" s="103" t="n">
         <v>48.99</v>
       </c>
-      <c r="J70" s="59" t="n">
+      <c r="J70" s="60" t="n">
         <v>-0.03</v>
+      </c>
+      <c r="K70" s="11" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="71">
@@ -4259,16 +4471,16 @@
           <t>XLY</t>
         </is>
       </c>
-      <c r="B71" s="215" t="n">
+      <c r="B71" s="216" t="n">
         <v>6.85</v>
       </c>
       <c r="C71" s="194" t="n">
         <v>5.43</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="49" t="n">
         <v>28.31</v>
       </c>
-      <c r="E71" s="216" t="n">
+      <c r="E71" s="217" t="n">
         <v>-2.25</v>
       </c>
       <c r="F71" s="194" t="n">
@@ -4277,14 +4489,17 @@
       <c r="G71" s="81" t="n">
         <v>58.04</v>
       </c>
-      <c r="H71" s="62" t="n">
+      <c r="H71" s="63" t="n">
         <v>56.52</v>
       </c>
-      <c r="I71" s="138" t="n">
+      <c r="I71" s="140" t="n">
         <v>54.64</v>
       </c>
-      <c r="J71" s="35" t="n">
+      <c r="J71" s="38" t="n">
         <v>0.12</v>
+      </c>
+      <c r="K71" s="26" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="72">
@@ -4293,16 +4508,16 @@
           <t>XHB</t>
         </is>
       </c>
-      <c r="B72" s="99" t="n">
+      <c r="B72" s="100" t="n">
         <v>18.37</v>
       </c>
       <c r="C72" s="156" t="n">
         <v>14.01</v>
       </c>
-      <c r="D72" s="92" t="n">
+      <c r="D72" s="93" t="n">
         <v>49.35</v>
       </c>
-      <c r="E72" s="217" t="n">
+      <c r="E72" s="218" t="n">
         <v>-1.07</v>
       </c>
       <c r="F72" s="164" t="n">
@@ -4311,14 +4526,17 @@
       <c r="G72" s="81" t="n">
         <v>58.08</v>
       </c>
-      <c r="H72" s="178" t="n">
+      <c r="H72" s="179" t="n">
         <v>59.07</v>
       </c>
       <c r="I72" s="171" t="n">
         <v>59</v>
       </c>
-      <c r="J72" s="46" t="n">
+      <c r="J72" s="49" t="n">
         <v>0.9</v>
+      </c>
+      <c r="K72" s="84" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="73">
@@ -4327,32 +4545,35 @@
           <t>XRT</t>
         </is>
       </c>
-      <c r="B73" s="142" t="n">
+      <c r="B73" s="144" t="n">
         <v>10.49</v>
       </c>
-      <c r="C73" s="218" t="n">
+      <c r="C73" s="219" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="D73" s="66" t="n">
+      <c r="D73" s="67" t="n">
         <v>24.45</v>
       </c>
-      <c r="E73" s="90" t="n">
+      <c r="E73" s="91" t="n">
         <v>-3.25</v>
       </c>
-      <c r="F73" s="147" t="n">
+      <c r="F73" s="149" t="n">
         <v>59.96</v>
       </c>
-      <c r="G73" s="55" t="n">
+      <c r="G73" s="56" t="n">
         <v>56.21</v>
       </c>
-      <c r="H73" s="55" t="n">
+      <c r="H73" s="56" t="n">
         <v>56.07</v>
       </c>
-      <c r="I73" s="147" t="n">
+      <c r="I73" s="149" t="n">
         <v>54.95</v>
       </c>
-      <c r="J73" s="219" t="n">
+      <c r="J73" s="220" t="n">
         <v>0.26</v>
+      </c>
+      <c r="K73" s="38" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="74">
@@ -4364,29 +4585,32 @@
       <c r="B74" s="173" t="n">
         <v>3.88</v>
       </c>
-      <c r="C74" s="49" t="n">
+      <c r="C74" s="52" t="n">
         <v>5.62</v>
       </c>
-      <c r="D74" s="79" t="n">
+      <c r="D74" s="40" t="n">
         <v>19.01</v>
       </c>
       <c r="E74" s="199" t="n">
         <v>-5.87</v>
       </c>
-      <c r="F74" s="134" t="n">
+      <c r="F74" s="135" t="n">
         <v>42.92</v>
       </c>
-      <c r="G74" s="57" t="n">
+      <c r="G74" s="58" t="n">
         <v>45.02</v>
       </c>
-      <c r="H74" s="103" t="n">
+      <c r="H74" s="104" t="n">
         <v>48.02</v>
       </c>
-      <c r="I74" s="143" t="n">
+      <c r="I74" s="145" t="n">
         <v>51.82</v>
       </c>
-      <c r="J74" s="52" t="n">
+      <c r="J74" s="31" t="n">
         <v>-0.17</v>
+      </c>
+      <c r="K74" s="21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="75">
@@ -4395,7 +4619,7 @@
           <t>XTL</t>
         </is>
       </c>
-      <c r="B75" s="147" t="n">
+      <c r="B75" s="149" t="n">
         <v>6.32</v>
       </c>
       <c r="C75" s="152" t="n">
@@ -4407,20 +4631,23 @@
       <c r="E75" s="197" t="n">
         <v>-9.17</v>
       </c>
-      <c r="F75" s="11" t="n">
+      <c r="F75" s="12" t="n">
         <v>47.96</v>
       </c>
-      <c r="G75" s="33" t="n">
+      <c r="G75" s="36" t="n">
         <v>50.63</v>
       </c>
-      <c r="H75" s="104" t="n">
+      <c r="H75" s="105" t="n">
         <v>53.07</v>
       </c>
       <c r="I75" s="190" t="n">
         <v>53.2</v>
       </c>
-      <c r="J75" s="50" t="n">
+      <c r="J75" s="53" t="n">
         <v>0.23</v>
+      </c>
+      <c r="K75" s="37" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="76">
@@ -4429,33 +4656,36 @@
           <t>XLI</t>
         </is>
       </c>
-      <c r="B76" s="140" t="n">
+      <c r="B76" s="142" t="n">
         <v>9.16</v>
       </c>
-      <c r="C76" s="49" t="n">
+      <c r="C76" s="52" t="n">
         <v>5.65</v>
       </c>
       <c r="D76" s="9" t="n">
         <v>19.85</v>
       </c>
-      <c r="E76" s="95" t="n">
+      <c r="E76" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="128" t="n">
+      <c r="F76" s="129" t="n">
         <v>69.95999999999999</v>
       </c>
-      <c r="G76" s="146" t="n">
+      <c r="G76" s="148" t="n">
         <v>65.11</v>
       </c>
-      <c r="H76" s="124" t="n">
+      <c r="H76" s="125" t="n">
         <v>63.63</v>
       </c>
-      <c r="I76" s="92" t="n">
+      <c r="I76" s="93" t="n">
         <v>58.36</v>
       </c>
       <c r="J76" s="158" t="n">
         <v>0.97</v>
       </c>
+      <c r="K76" s="221" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4463,7 +4693,7 @@
           <t>ITA</t>
         </is>
       </c>
-      <c r="B77" s="77" t="n">
+      <c r="B77" s="78" t="n">
         <v>7.06</v>
       </c>
       <c r="C77" s="196" t="n">
@@ -4472,23 +4702,26 @@
       <c r="D77" s="9" t="n">
         <v>19.84</v>
       </c>
-      <c r="E77" s="220" t="n">
+      <c r="E77" s="222" t="n">
         <v>-2.41</v>
       </c>
       <c r="F77" s="166" t="n">
         <v>65.7</v>
       </c>
-      <c r="G77" s="109" t="n">
+      <c r="G77" s="110" t="n">
         <v>56.87</v>
       </c>
       <c r="H77" s="173" t="n">
         <v>56.21</v>
       </c>
-      <c r="I77" s="139" t="n">
+      <c r="I77" s="141" t="n">
         <v>55.61</v>
       </c>
-      <c r="J77" s="134" t="n">
+      <c r="J77" s="135" t="n">
         <v>0.17</v>
+      </c>
+      <c r="K77" s="11" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="78">
@@ -4497,32 +4730,35 @@
           <t>XTN</t>
         </is>
       </c>
-      <c r="B78" s="38" t="n">
+      <c r="B78" s="41" t="n">
         <v>3.39</v>
       </c>
-      <c r="C78" s="39" t="n">
+      <c r="C78" s="42" t="n">
         <v>3.29</v>
       </c>
-      <c r="D78" s="37" t="n">
+      <c r="D78" s="21" t="n">
         <v>20.41</v>
       </c>
       <c r="E78" s="188" t="n">
         <v>-8.44</v>
       </c>
-      <c r="F78" s="45" t="n">
+      <c r="F78" s="48" t="n">
         <v>55.83</v>
       </c>
-      <c r="G78" s="75" t="n">
+      <c r="G78" s="76" t="n">
         <v>52.38</v>
       </c>
-      <c r="H78" s="20" t="n">
+      <c r="H78" s="22" t="n">
         <v>52.58</v>
       </c>
-      <c r="I78" s="68" t="n">
+      <c r="I78" s="69" t="n">
         <v>52.33</v>
       </c>
-      <c r="J78" s="19" t="n">
+      <c r="J78" s="20" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+      <c r="K78" s="21" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="79">
@@ -4531,32 +4767,35 @@
           <t>XLV</t>
         </is>
       </c>
-      <c r="B79" s="178" t="n">
+      <c r="B79" s="179" t="n">
         <v>7.2</v>
       </c>
-      <c r="C79" s="39" t="n">
+      <c r="C79" s="42" t="n">
         <v>3.3</v>
       </c>
       <c r="D79" s="167" t="n">
         <v>15.31</v>
       </c>
-      <c r="E79" s="95" t="n">
+      <c r="E79" s="96" t="n">
         <v>-0.15</v>
       </c>
-      <c r="F79" s="98" t="n">
+      <c r="F79" s="99" t="n">
         <v>73.08</v>
       </c>
-      <c r="G79" s="221" t="n">
+      <c r="G79" s="223" t="n">
         <v>69.43000000000001</v>
       </c>
-      <c r="H79" s="98" t="n">
+      <c r="H79" s="99" t="n">
         <v>67.75</v>
       </c>
       <c r="I79" s="6" t="n">
         <v>58.76</v>
       </c>
-      <c r="J79" s="121" t="n">
+      <c r="J79" s="122" t="n">
         <v>1.27</v>
+      </c>
+      <c r="K79" s="47" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="80">
@@ -4568,29 +4807,32 @@
       <c r="B80" s="85" t="n">
         <v>-0.83</v>
       </c>
-      <c r="C80" s="111" t="n">
+      <c r="C80" s="112" t="n">
         <v>-3.91</v>
       </c>
-      <c r="D80" s="136" t="n">
+      <c r="D80" s="138" t="n">
         <v>26.91</v>
       </c>
       <c r="E80" s="154" t="n">
         <v>-14.67</v>
       </c>
-      <c r="F80" s="53" t="n">
+      <c r="F80" s="54" t="n">
         <v>53.32</v>
       </c>
-      <c r="G80" s="110" t="n">
+      <c r="G80" s="111" t="n">
         <v>55.12</v>
       </c>
       <c r="H80" s="173" t="n">
         <v>56.24</v>
       </c>
-      <c r="I80" s="12" t="n">
+      <c r="I80" s="13" t="n">
         <v>51.99</v>
       </c>
-      <c r="J80" s="208" t="n">
+      <c r="J80" s="209" t="n">
         <v>0.73</v>
+      </c>
+      <c r="K80" s="12" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="81">
@@ -4599,32 +4841,35 @@
           <t>XHS</t>
         </is>
       </c>
-      <c r="B81" s="120" t="n">
+      <c r="B81" s="121" t="n">
         <v>0.66</v>
       </c>
       <c r="C81" s="190" t="n">
         <v>0.38</v>
       </c>
-      <c r="D81" s="48" t="n">
+      <c r="D81" s="51" t="n">
         <v>12.82</v>
       </c>
-      <c r="E81" s="129" t="n">
+      <c r="E81" s="130" t="n">
         <v>-7.35</v>
       </c>
-      <c r="F81" s="45" t="n">
+      <c r="F81" s="48" t="n">
         <v>55.74</v>
       </c>
-      <c r="G81" s="20" t="n">
+      <c r="G81" s="22" t="n">
         <v>52.28</v>
       </c>
-      <c r="H81" s="20" t="n">
+      <c r="H81" s="22" t="n">
         <v>52.5</v>
       </c>
-      <c r="I81" s="20" t="n">
+      <c r="I81" s="22" t="n">
         <v>51.29</v>
       </c>
-      <c r="J81" s="59" t="n">
+      <c r="J81" s="60" t="n">
         <v>-0.01</v>
+      </c>
+      <c r="K81" s="20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="82">
@@ -4633,32 +4878,35 @@
           <t>BBH</t>
         </is>
       </c>
-      <c r="B82" s="21" t="n">
+      <c r="B82" s="23" t="n">
         <v>4.29</v>
       </c>
-      <c r="C82" s="77" t="n">
+      <c r="C82" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="D82" s="15" t="n">
+      <c r="D82" s="16" t="n">
         <v>14.88</v>
       </c>
-      <c r="E82" s="175" t="n">
+      <c r="E82" s="176" t="n">
         <v>-3.08</v>
       </c>
-      <c r="F82" s="51" t="n">
+      <c r="F82" s="11" t="n">
         <v>41.16</v>
       </c>
-      <c r="G82" s="74" t="n">
+      <c r="G82" s="75" t="n">
         <v>48.15</v>
       </c>
-      <c r="H82" s="121" t="n">
+      <c r="H82" s="122" t="n">
         <v>51.67</v>
       </c>
-      <c r="I82" s="47" t="n">
+      <c r="I82" s="50" t="n">
         <v>52.98</v>
       </c>
-      <c r="J82" s="163" t="n">
+      <c r="J82" s="161" t="n">
         <v>0.57</v>
+      </c>
+      <c r="K82" s="150" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="83">
@@ -4667,16 +4915,16 @@
           <t>PPH</t>
         </is>
       </c>
-      <c r="B83" s="39" t="n">
+      <c r="B83" s="42" t="n">
         <v>7.53</v>
       </c>
-      <c r="C83" s="77" t="n">
+      <c r="C83" s="78" t="n">
         <v>2.99</v>
       </c>
-      <c r="D83" s="64" t="n">
+      <c r="D83" s="65" t="n">
         <v>16.5</v>
       </c>
-      <c r="E83" s="222" t="n">
+      <c r="E83" s="224" t="n">
         <v>-0.54</v>
       </c>
       <c r="F83" s="166" t="n">
@@ -4688,11 +4936,14 @@
       <c r="H83" s="188" t="n">
         <v>66.31</v>
       </c>
-      <c r="I83" s="146" t="n">
+      <c r="I83" s="148" t="n">
         <v>58.45</v>
       </c>
-      <c r="J83" s="46" t="n">
+      <c r="J83" s="49" t="n">
         <v>0.93</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="84">
@@ -4704,29 +4955,32 @@
       <c r="B84" s="188" t="n">
         <v>15.68</v>
       </c>
-      <c r="C84" s="223" t="n">
+      <c r="C84" s="225" t="n">
         <v>9.98</v>
       </c>
-      <c r="D84" s="92" t="n">
+      <c r="D84" s="93" t="n">
         <v>49.23</v>
       </c>
-      <c r="E84" s="224" t="n">
+      <c r="E84" s="226" t="n">
         <v>-0.91</v>
       </c>
-      <c r="F84" s="77" t="n">
+      <c r="F84" s="78" t="n">
         <v>60.64</v>
       </c>
       <c r="G84" s="194" t="n">
         <v>62.74</v>
       </c>
-      <c r="H84" s="127" t="n">
+      <c r="H84" s="128" t="n">
         <v>63.24</v>
       </c>
       <c r="I84" s="83" t="n">
         <v>60.67</v>
       </c>
-      <c r="J84" s="107" t="n">
+      <c r="J84" s="108" t="n">
         <v>3.24</v>
+      </c>
+      <c r="K84" s="157" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="85">
@@ -4735,32 +4989,35 @@
           <t>SMH</t>
         </is>
       </c>
-      <c r="B85" s="95" t="n">
+      <c r="B85" s="96" t="n">
         <v>23.77</v>
       </c>
-      <c r="C85" s="41" t="n">
+      <c r="C85" s="44" t="n">
         <v>12.8</v>
       </c>
-      <c r="D85" s="95" t="n">
+      <c r="D85" s="96" t="n">
         <v>63.27</v>
       </c>
-      <c r="E85" s="96" t="n">
+      <c r="E85" s="97" t="n">
         <v>-0.6</v>
       </c>
       <c r="F85" s="198" t="n">
         <v>66.77</v>
       </c>
-      <c r="G85" s="225" t="n">
+      <c r="G85" s="227" t="n">
         <v>67.2</v>
       </c>
-      <c r="H85" s="226" t="n">
+      <c r="H85" s="228" t="n">
         <v>66.68000000000001</v>
       </c>
       <c r="I85" s="168" t="n">
         <v>61.57</v>
       </c>
-      <c r="J85" s="180" t="n">
+      <c r="J85" s="181" t="n">
         <v>5.13</v>
+      </c>
+      <c r="K85" s="218" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="86">
@@ -4769,16 +5026,16 @@
           <t>XSW</t>
         </is>
       </c>
-      <c r="B86" s="124" t="n">
+      <c r="B86" s="125" t="n">
         <v>12.57</v>
       </c>
-      <c r="C86" s="98" t="n">
+      <c r="C86" s="99" t="n">
         <v>9.92</v>
       </c>
-      <c r="D86" s="93" t="n">
+      <c r="D86" s="94" t="n">
         <v>33.09</v>
       </c>
-      <c r="E86" s="216" t="n">
+      <c r="E86" s="217" t="n">
         <v>-2.38</v>
       </c>
       <c r="F86" s="80" t="n">
@@ -4787,14 +5044,17 @@
       <c r="G86" s="190" t="n">
         <v>55.63</v>
       </c>
-      <c r="H86" s="21" t="n">
+      <c r="H86" s="23" t="n">
         <v>56.6</v>
       </c>
-      <c r="I86" s="108" t="n">
+      <c r="I86" s="109" t="n">
         <v>56.3</v>
       </c>
-      <c r="J86" s="43" t="n">
+      <c r="J86" s="46" t="n">
         <v>1.3</v>
+      </c>
+      <c r="K86" s="22" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="87">
@@ -4803,31 +5063,34 @@
           <t>XTH</t>
         </is>
       </c>
-      <c r="B87" s="104" t="n">
+      <c r="B87" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="C87" s="110" t="n">
+      <c r="C87" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="D87" s="13" t="n">
+      <c r="D87" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E87" s="95" t="n">
+      <c r="E87" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F87" s="108" t="n">
+      <c r="F87" s="109" t="n">
         <v>62.91</v>
       </c>
-      <c r="G87" s="177" t="n">
+      <c r="G87" s="178" t="n">
         <v>60.43</v>
       </c>
-      <c r="H87" s="130" t="n">
+      <c r="H87" s="131" t="n">
         <v>57.24</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>50.31</v>
       </c>
-      <c r="J87" s="59" t="n">
+      <c r="J87" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4837,19 +5100,19 @@
           <t>XLB</t>
         </is>
       </c>
-      <c r="B88" s="110" t="n">
+      <c r="B88" s="111" t="n">
         <v>2.66</v>
       </c>
       <c r="C88" s="183" t="n">
         <v>3.19</v>
       </c>
-      <c r="D88" s="17" t="n">
+      <c r="D88" s="18" t="n">
         <v>11.59</v>
       </c>
-      <c r="E88" s="23" t="n">
+      <c r="E88" s="25" t="n">
         <v>-3.62</v>
       </c>
-      <c r="F88" s="93" t="n">
+      <c r="F88" s="94" t="n">
         <v>52.41</v>
       </c>
       <c r="G88" s="84" t="n">
@@ -4858,11 +5121,14 @@
       <c r="H88" s="8" t="n">
         <v>50.77</v>
       </c>
-      <c r="I88" s="120" t="n">
+      <c r="I88" s="121" t="n">
         <v>51.91</v>
       </c>
-      <c r="J88" s="52" t="n">
+      <c r="J88" s="31" t="n">
         <v>-0.15</v>
+      </c>
+      <c r="K88" s="189" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="89">
@@ -4880,23 +5146,26 @@
       <c r="D89" s="158" t="n">
         <v>28.77</v>
       </c>
-      <c r="E89" s="98" t="n">
+      <c r="E89" s="99" t="n">
         <v>-6.63</v>
       </c>
-      <c r="F89" s="33" t="n">
+      <c r="F89" s="36" t="n">
         <v>49.5</v>
       </c>
       <c r="G89" s="8" t="n">
         <v>50.24</v>
       </c>
-      <c r="H89" s="43" t="n">
+      <c r="H89" s="46" t="n">
         <v>51.89</v>
       </c>
-      <c r="I89" s="21" t="n">
+      <c r="I89" s="23" t="n">
         <v>53.8</v>
       </c>
-      <c r="J89" s="57" t="n">
+      <c r="J89" s="58" t="n">
         <v>0.04</v>
+      </c>
+      <c r="K89" s="60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="90">
@@ -4905,32 +5174,35 @@
           <t>GDX</t>
         </is>
       </c>
-      <c r="B90" s="34" t="n">
+      <c r="B90" s="37" t="n">
         <v>-6.11</v>
       </c>
-      <c r="C90" s="30" t="n">
+      <c r="C90" s="33" t="n">
         <v>-0.15</v>
       </c>
-      <c r="D90" s="213" t="n">
+      <c r="D90" s="214" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="E90" s="47" t="n">
+      <c r="E90" s="50" t="n">
         <v>-21.88</v>
       </c>
-      <c r="F90" s="36" t="n">
+      <c r="F90" s="39" t="n">
         <v>44.67</v>
       </c>
-      <c r="G90" s="181" t="n">
+      <c r="G90" s="174" t="n">
         <v>43.43</v>
       </c>
       <c r="H90" s="189" t="n">
         <v>44.11</v>
       </c>
-      <c r="I90" s="134" t="n">
+      <c r="I90" s="135" t="n">
         <v>47.56</v>
       </c>
-      <c r="J90" s="209" t="n">
+      <c r="J90" s="210" t="n">
         <v>-0.44</v>
+      </c>
+      <c r="K90" s="28" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="91">
@@ -4942,10 +5214,10 @@
       <c r="B91" s="8" t="n">
         <v>-2.69</v>
       </c>
-      <c r="C91" s="147" t="n">
+      <c r="C91" s="149" t="n">
         <v>2.6</v>
       </c>
-      <c r="D91" s="135" t="n">
+      <c r="D91" s="137" t="n">
         <v>12.38</v>
       </c>
       <c r="E91" s="187" t="n">
@@ -4954,17 +5226,20 @@
       <c r="F91" s="169" t="n">
         <v>46.02</v>
       </c>
-      <c r="G91" s="59" t="n">
+      <c r="G91" s="60" t="n">
         <v>44.55</v>
       </c>
-      <c r="H91" s="28" t="n">
+      <c r="H91" s="30" t="n">
         <v>45.46</v>
       </c>
-      <c r="I91" s="103" t="n">
+      <c r="I91" s="104" t="n">
         <v>48.58</v>
       </c>
-      <c r="J91" s="24" t="n">
+      <c r="J91" s="26" t="n">
         <v>-0.36</v>
+      </c>
+      <c r="K91" s="119" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="92">
@@ -4973,7 +5248,7 @@
           <t>SLX</t>
         </is>
       </c>
-      <c r="B92" s="130" t="n">
+      <c r="B92" s="131" t="n">
         <v>5.04</v>
       </c>
       <c r="C92" s="171" t="n">
@@ -4982,23 +5257,26 @@
       <c r="D92" s="200" t="n">
         <v>24.12</v>
       </c>
-      <c r="E92" s="227" t="n">
+      <c r="E92" s="229" t="n">
         <v>-7.75</v>
       </c>
-      <c r="F92" s="19" t="n">
+      <c r="F92" s="20" t="n">
         <v>41.28</v>
       </c>
       <c r="G92" s="159" t="n">
         <v>43.12</v>
       </c>
-      <c r="H92" s="57" t="n">
+      <c r="H92" s="58" t="n">
         <v>45.88</v>
       </c>
-      <c r="I92" s="104" t="n">
+      <c r="I92" s="105" t="n">
         <v>51.63</v>
       </c>
-      <c r="J92" s="79" t="n">
+      <c r="J92" s="40" t="n">
         <v>-0.41</v>
+      </c>
+      <c r="K92" s="202" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="93">
@@ -5007,32 +5285,35 @@
           <t>XLF</t>
         </is>
       </c>
-      <c r="B93" s="212" t="n">
+      <c r="B93" s="213" t="n">
         <v>12.69</v>
       </c>
       <c r="C93" s="197" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="D93" s="163" t="n">
+      <c r="D93" s="161" t="n">
         <v>25.82</v>
       </c>
-      <c r="E93" s="96" t="n">
+      <c r="E93" s="97" t="n">
         <v>-0.66</v>
       </c>
       <c r="F93" s="171" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="G93" s="129" t="n">
+      <c r="G93" s="130" t="n">
         <v>68.61</v>
       </c>
-      <c r="H93" s="223" t="n">
+      <c r="H93" s="225" t="n">
         <v>67.86</v>
       </c>
       <c r="I93" s="172" t="n">
         <v>61.01</v>
       </c>
-      <c r="J93" s="60" t="n">
+      <c r="J93" s="61" t="n">
         <v>0.48</v>
+      </c>
+      <c r="K93" s="37" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="94">
@@ -5041,16 +5322,16 @@
           <t>KCE</t>
         </is>
       </c>
-      <c r="B94" s="106" t="n">
+      <c r="B94" s="107" t="n">
         <v>13.97</v>
       </c>
       <c r="C94" s="168" t="n">
         <v>10.93</v>
       </c>
-      <c r="D94" s="104" t="n">
+      <c r="D94" s="105" t="n">
         <v>32.73</v>
       </c>
-      <c r="E94" s="132" t="n">
+      <c r="E94" s="133" t="n">
         <v>-1.38</v>
       </c>
       <c r="F94" s="81" t="n">
@@ -5059,14 +5340,17 @@
       <c r="G94" s="170" t="n">
         <v>59.01</v>
       </c>
-      <c r="H94" s="131" t="n">
+      <c r="H94" s="132" t="n">
         <v>60.14</v>
       </c>
       <c r="I94" s="153" t="n">
         <v>58.68</v>
       </c>
-      <c r="J94" s="228" t="n">
+      <c r="J94" s="221" t="n">
         <v>0.77</v>
+      </c>
+      <c r="K94" s="102" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -5078,29 +5362,32 @@
       <c r="B95" s="196" t="n">
         <v>12.31</v>
       </c>
-      <c r="C95" s="95" t="n">
+      <c r="C95" s="96" t="n">
         <v>14.19</v>
       </c>
-      <c r="D95" s="62" t="n">
+      <c r="D95" s="63" t="n">
         <v>37.96</v>
       </c>
-      <c r="E95" s="229" t="n">
+      <c r="E95" s="230" t="n">
         <v>-12.73</v>
       </c>
-      <c r="F95" s="40" t="n">
+      <c r="F95" s="43" t="n">
         <v>32.81</v>
       </c>
-      <c r="G95" s="70" t="n">
+      <c r="G95" s="71" t="n">
         <v>42.28</v>
       </c>
-      <c r="H95" s="36" t="n">
+      <c r="H95" s="39" t="n">
         <v>47.54</v>
       </c>
-      <c r="I95" s="38" t="n">
+      <c r="I95" s="41" t="n">
         <v>53.31</v>
       </c>
-      <c r="J95" s="59" t="n">
+      <c r="J95" s="60" t="n">
         <v>-0.01</v>
+      </c>
+      <c r="K95" s="53" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="96">
@@ -5109,13 +5396,13 @@
           <t>KRE</t>
         </is>
       </c>
-      <c r="B96" s="131" t="n">
+      <c r="B96" s="132" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="C96" s="217" t="n">
+      <c r="C96" s="218" t="n">
         <v>13.52</v>
       </c>
-      <c r="D96" s="53" t="n">
+      <c r="D96" s="54" t="n">
         <v>34.06</v>
       </c>
       <c r="E96" s="3" t="n">
@@ -5124,18 +5411,21 @@
       <c r="F96" s="201" t="n">
         <v>28.33</v>
       </c>
-      <c r="G96" s="48" t="n">
+      <c r="G96" s="51" t="n">
         <v>38.06</v>
       </c>
-      <c r="H96" s="209" t="n">
+      <c r="H96" s="210" t="n">
         <v>43.67</v>
       </c>
-      <c r="I96" s="44" t="n">
+      <c r="I96" s="47" t="n">
         <v>50.97</v>
       </c>
       <c r="J96" s="189" t="n">
         <v>-0.33</v>
       </c>
+      <c r="K96" s="136" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -5143,32 +5433,35 @@
           <t>IAK</t>
         </is>
       </c>
-      <c r="B97" s="106" t="n">
+      <c r="B97" s="107" t="n">
         <v>13.97</v>
       </c>
-      <c r="C97" s="204" t="n">
+      <c r="C97" s="205" t="n">
         <v>9.09</v>
       </c>
-      <c r="D97" s="149" t="n">
+      <c r="D97" s="150" t="n">
         <v>30.64</v>
       </c>
-      <c r="E97" s="132" t="n">
+      <c r="E97" s="133" t="n">
         <v>-1.36</v>
       </c>
-      <c r="F97" s="109" t="n">
+      <c r="F97" s="110" t="n">
         <v>57.69</v>
       </c>
       <c r="G97" s="196" t="n">
         <v>64.36</v>
       </c>
-      <c r="H97" s="205" t="n">
+      <c r="H97" s="206" t="n">
         <v>65.20999999999999</v>
       </c>
       <c r="I97" s="5" t="n">
         <v>60.5</v>
       </c>
-      <c r="J97" s="93" t="n">
+      <c r="J97" s="94" t="n">
         <v>1.58</v>
+      </c>
+      <c r="K97" s="69" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="98">
@@ -5180,30 +5473,33 @@
       <c r="B98" s="194" t="n">
         <v>10.54</v>
       </c>
-      <c r="C98" s="92" t="n">
+      <c r="C98" s="93" t="n">
         <v>6.87</v>
       </c>
-      <c r="D98" s="28" t="n">
+      <c r="D98" s="30" t="n">
         <v>21.32</v>
       </c>
-      <c r="E98" s="95" t="n">
+      <c r="E98" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F98" s="14" t="n">
+      <c r="F98" s="15" t="n">
         <v>72.15000000000001</v>
       </c>
-      <c r="G98" s="221" t="n">
+      <c r="G98" s="223" t="n">
         <v>69.47</v>
       </c>
-      <c r="H98" s="91" t="n">
+      <c r="H98" s="92" t="n">
         <v>68.73999999999999</v>
       </c>
-      <c r="I98" s="23" t="n">
+      <c r="I98" s="25" t="n">
         <v>62.29</v>
       </c>
       <c r="J98" s="157" t="n">
         <v>3.65</v>
       </c>
+      <c r="K98" s="230" t="n">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -5211,33 +5507,36 @@
           <t>XLG</t>
         </is>
       </c>
-      <c r="B99" s="202" t="n">
+      <c r="B99" s="203" t="n">
         <v>13.35</v>
       </c>
-      <c r="C99" s="146" t="n">
+      <c r="C99" s="148" t="n">
         <v>7.08</v>
       </c>
       <c r="D99" s="164" t="n">
         <v>40.35</v>
       </c>
-      <c r="E99" s="95" t="n">
+      <c r="E99" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F99" s="225" t="n">
+      <c r="F99" s="227" t="n">
         <v>70.61</v>
       </c>
-      <c r="G99" s="99" t="n">
+      <c r="G99" s="100" t="n">
         <v>69.98</v>
       </c>
-      <c r="H99" s="230" t="n">
+      <c r="H99" s="231" t="n">
         <v>68.98999999999999</v>
       </c>
-      <c r="I99" s="231" t="n">
+      <c r="I99" s="232" t="n">
         <v>62.37</v>
       </c>
       <c r="J99" s="169" t="n">
         <v>0.6</v>
       </c>
+      <c r="K99" s="29" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -5245,32 +5544,35 @@
           <t>IWB</t>
         </is>
       </c>
-      <c r="B100" s="49" t="n">
+      <c r="B100" s="52" t="n">
         <v>11.05</v>
       </c>
       <c r="C100" s="196" t="n">
         <v>6.55</v>
       </c>
-      <c r="D100" s="46" t="n">
+      <c r="D100" s="49" t="n">
         <v>28.19</v>
       </c>
-      <c r="E100" s="95" t="n">
+      <c r="E100" s="96" t="n">
         <v>0</v>
       </c>
       <c r="F100" s="171" t="n">
         <v>69.19</v>
       </c>
-      <c r="G100" s="226" t="n">
+      <c r="G100" s="228" t="n">
         <v>67.88</v>
       </c>
-      <c r="H100" s="227" t="n">
+      <c r="H100" s="229" t="n">
         <v>67.01000000000001</v>
       </c>
       <c r="I100" s="172" t="n">
         <v>61</v>
       </c>
-      <c r="J100" s="126" t="n">
+      <c r="J100" s="127" t="n">
         <v>3.08</v>
+      </c>
+      <c r="K100" s="132" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="101">
@@ -5282,7 +5584,7 @@
       <c r="B101" s="81" t="n">
         <v>5.57</v>
       </c>
-      <c r="C101" s="142" t="n">
+      <c r="C101" s="144" t="n">
         <v>5.21</v>
       </c>
       <c r="D101" s="9" t="n">
@@ -5291,20 +5593,23 @@
       <c r="E101" s="168" t="n">
         <v>-5.08</v>
       </c>
-      <c r="F101" s="208" t="n">
+      <c r="F101" s="209" t="n">
         <v>46.93</v>
       </c>
-      <c r="G101" s="111" t="n">
+      <c r="G101" s="112" t="n">
         <v>49.73</v>
       </c>
-      <c r="H101" s="43" t="n">
+      <c r="H101" s="46" t="n">
         <v>51.78</v>
       </c>
-      <c r="I101" s="45" t="n">
+      <c r="I101" s="48" t="n">
         <v>53.1</v>
       </c>
-      <c r="J101" s="60" t="n">
+      <c r="J101" s="61" t="n">
         <v>0.45</v>
+      </c>
+      <c r="K101" s="103" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="102">
@@ -5319,27 +5624,30 @@
       <c r="C102" s="116" t="n">
         <v>4.87</v>
       </c>
-      <c r="D102" s="94" t="n">
+      <c r="D102" s="95" t="n">
         <v>23.11</v>
       </c>
-      <c r="E102" s="227" t="n">
+      <c r="E102" s="229" t="n">
         <v>-7.62</v>
       </c>
-      <c r="F102" s="60" t="n">
+      <c r="F102" s="61" t="n">
         <v>45</v>
       </c>
       <c r="G102" s="186" t="n">
         <v>49.03</v>
       </c>
-      <c r="H102" s="121" t="n">
+      <c r="H102" s="122" t="n">
         <v>51.65</v>
       </c>
-      <c r="I102" s="110" t="n">
+      <c r="I102" s="111" t="n">
         <v>52.93</v>
       </c>
       <c r="J102" s="200" t="n">
         <v>0.34</v>
       </c>
+      <c r="K102" s="29" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -5347,16 +5655,16 @@
           <t>SPYG</t>
         </is>
       </c>
-      <c r="B103" s="146" t="n">
+      <c r="B103" s="148" t="n">
         <v>13.03</v>
       </c>
-      <c r="C103" s="127" t="n">
+      <c r="C103" s="128" t="n">
         <v>6.24</v>
       </c>
-      <c r="D103" s="133" t="n">
+      <c r="D103" s="134" t="n">
         <v>34.77</v>
       </c>
-      <c r="E103" s="95" t="n">
+      <c r="E103" s="96" t="n">
         <v>0</v>
       </c>
       <c r="F103" s="188" t="n">
@@ -5365,14 +5673,17 @@
       <c r="G103" s="199" t="n">
         <v>69.95999999999999</v>
       </c>
-      <c r="H103" s="230" t="n">
+      <c r="H103" s="231" t="n">
         <v>68.87</v>
       </c>
-      <c r="I103" s="232" t="n">
+      <c r="I103" s="233" t="n">
         <v>62.1</v>
       </c>
-      <c r="J103" s="33" t="n">
+      <c r="J103" s="36" t="n">
         <v>1.13</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -5381,22 +5692,22 @@
           <t>SPYD</t>
         </is>
       </c>
-      <c r="B104" s="105" t="n">
+      <c r="B104" s="106" t="n">
         <v>4.61</v>
       </c>
       <c r="C104" s="154" t="n">
         <v>4.71</v>
       </c>
-      <c r="D104" s="65" t="n">
+      <c r="D104" s="66" t="n">
         <v>16.85</v>
       </c>
-      <c r="E104" s="218" t="n">
+      <c r="E104" s="219" t="n">
         <v>-8.65</v>
       </c>
-      <c r="F104" s="35" t="n">
+      <c r="F104" s="38" t="n">
         <v>42.68</v>
       </c>
-      <c r="G104" s="163" t="n">
+      <c r="G104" s="161" t="n">
         <v>47.69</v>
       </c>
       <c r="H104" s="2" t="n">
@@ -5408,6 +5719,9 @@
       <c r="J104" s="10" t="n">
         <v>0.03</v>
       </c>
+      <c r="K104" s="58" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -5415,7 +5729,7 @@
           <t>SPYV</t>
         </is>
       </c>
-      <c r="B105" s="126" t="n">
+      <c r="B105" s="127" t="n">
         <v>8.74</v>
       </c>
       <c r="C105" s="196" t="n">
@@ -5427,10 +5741,10 @@
       <c r="E105" s="156" t="n">
         <v>-0.21</v>
       </c>
-      <c r="F105" s="77" t="n">
+      <c r="F105" s="78" t="n">
         <v>60.57</v>
       </c>
-      <c r="G105" s="177" t="n">
+      <c r="G105" s="178" t="n">
         <v>60.41</v>
       </c>
       <c r="H105" s="154" t="n">
@@ -5442,6 +5756,9 @@
       <c r="J105" s="155" t="n">
         <v>0.29</v>
       </c>
+      <c r="K105" s="220" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -5449,32 +5766,35 @@
           <t>SDY</t>
         </is>
       </c>
-      <c r="B106" s="47" t="n">
+      <c r="B106" s="50" t="n">
         <v>2.86</v>
       </c>
       <c r="C106" s="164" t="n">
         <v>2.25</v>
       </c>
-      <c r="D106" s="48" t="n">
+      <c r="D106" s="51" t="n">
         <v>12.65</v>
       </c>
-      <c r="E106" s="211" t="n">
+      <c r="E106" s="212" t="n">
         <v>-4.9</v>
       </c>
       <c r="F106" s="3" t="n">
         <v>51.4</v>
       </c>
-      <c r="G106" s="75" t="n">
+      <c r="G106" s="76" t="n">
         <v>52.39</v>
       </c>
-      <c r="H106" s="53" t="n">
+      <c r="H106" s="54" t="n">
         <v>53.82</v>
       </c>
-      <c r="I106" s="47" t="n">
+      <c r="I106" s="50" t="n">
         <v>53.05</v>
       </c>
-      <c r="J106" s="219" t="n">
+      <c r="J106" s="220" t="n">
         <v>0.26</v>
+      </c>
+      <c r="K106" s="220" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="107">
@@ -5483,16 +5803,16 @@
           <t>VIG</t>
         </is>
       </c>
-      <c r="B107" s="139" t="n">
+      <c r="B107" s="141" t="n">
         <v>7.71</v>
       </c>
       <c r="C107" s="116" t="n">
         <v>4.81</v>
       </c>
-      <c r="D107" s="70" t="n">
+      <c r="D107" s="71" t="n">
         <v>18.42</v>
       </c>
-      <c r="E107" s="95" t="n">
+      <c r="E107" s="96" t="n">
         <v>-0.01</v>
       </c>
       <c r="F107" s="166" t="n">
@@ -5501,14 +5821,17 @@
       <c r="G107" s="6" t="n">
         <v>65.69</v>
       </c>
-      <c r="H107" s="128" t="n">
+      <c r="H107" s="129" t="n">
         <v>65.42</v>
       </c>
       <c r="I107" s="188" t="n">
         <v>59.78</v>
       </c>
-      <c r="J107" s="75" t="n">
+      <c r="J107" s="76" t="n">
         <v>1.45</v>
+      </c>
+      <c r="K107" s="76" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="108">
@@ -5517,31 +5840,34 @@
           <t>PFF</t>
         </is>
       </c>
-      <c r="B108" s="130" t="n">
+      <c r="B108" s="131" t="n">
         <v>5.1</v>
       </c>
       <c r="C108" s="170" t="n">
         <v>2.75</v>
       </c>
-      <c r="D108" s="48" t="n">
+      <c r="D108" s="51" t="n">
         <v>12.84</v>
       </c>
-      <c r="E108" s="23" t="n">
+      <c r="E108" s="25" t="n">
         <v>-3.76</v>
       </c>
       <c r="F108" s="170" t="n">
         <v>60.02</v>
       </c>
-      <c r="G108" s="212" t="n">
+      <c r="G108" s="213" t="n">
         <v>64.84</v>
       </c>
-      <c r="H108" s="205" t="n">
+      <c r="H108" s="206" t="n">
         <v>65.14</v>
       </c>
       <c r="I108" s="194" t="n">
         <v>57.16</v>
       </c>
-      <c r="J108" s="219" t="n">
+      <c r="J108" s="220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K108" s="53" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5551,32 +5877,35 @@
           <t>QUAL</t>
         </is>
       </c>
-      <c r="B109" s="124" t="n">
+      <c r="B109" s="125" t="n">
         <v>12.52</v>
       </c>
-      <c r="C109" s="202" t="n">
+      <c r="C109" s="203" t="n">
         <v>7.23</v>
       </c>
-      <c r="D109" s="104" t="n">
+      <c r="D109" s="105" t="n">
         <v>32.71</v>
       </c>
-      <c r="E109" s="95" t="n">
+      <c r="E109" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F109" s="14" t="n">
+      <c r="F109" s="15" t="n">
         <v>72.2</v>
       </c>
-      <c r="G109" s="91" t="n">
+      <c r="G109" s="92" t="n">
         <v>70.29000000000001</v>
       </c>
-      <c r="H109" s="230" t="n">
+      <c r="H109" s="231" t="n">
         <v>69</v>
       </c>
-      <c r="I109" s="180" t="n">
+      <c r="I109" s="181" t="n">
         <v>62.16</v>
       </c>
-      <c r="J109" s="110" t="n">
+      <c r="J109" s="111" t="n">
         <v>1.97</v>
+      </c>
+      <c r="K109" s="187" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="110">
@@ -5588,29 +5917,32 @@
       <c r="B110" s="199" t="n">
         <v>18.02</v>
       </c>
-      <c r="C110" s="205" t="n">
+      <c r="C110" s="206" t="n">
         <v>7.78</v>
       </c>
-      <c r="D110" s="33" t="n">
+      <c r="D110" s="36" t="n">
         <v>29.83</v>
       </c>
-      <c r="E110" s="95" t="n">
+      <c r="E110" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="F110" s="175" t="n">
+      <c r="F110" s="176" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="G110" s="95" t="n">
+      <c r="G110" s="96" t="n">
         <v>75.25</v>
       </c>
-      <c r="H110" s="95" t="n">
+      <c r="H110" s="96" t="n">
         <v>73.27</v>
       </c>
-      <c r="I110" s="95" t="n">
+      <c r="I110" s="96" t="n">
         <v>64.13</v>
       </c>
-      <c r="J110" s="106" t="n">
+      <c r="J110" s="107" t="n">
         <v>4.03</v>
+      </c>
+      <c r="K110" s="93" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="111">
@@ -5619,7 +5951,7 @@
           <t>ESGU</t>
         </is>
       </c>
-      <c r="B111" s="49" t="n">
+      <c r="B111" s="52" t="n">
         <v>11</v>
       </c>
       <c r="C111" s="196" t="n">
@@ -5628,23 +5960,26 @@
       <c r="D111" s="186" t="n">
         <v>27.58</v>
       </c>
-      <c r="E111" s="95" t="n">
+      <c r="E111" s="96" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="171" t="n">
         <v>69.09</v>
       </c>
-      <c r="G111" s="226" t="n">
+      <c r="G111" s="228" t="n">
         <v>67.8</v>
       </c>
-      <c r="H111" s="227" t="n">
+      <c r="H111" s="229" t="n">
         <v>66.95999999999999</v>
       </c>
-      <c r="I111" s="223" t="n">
+      <c r="I111" s="225" t="n">
         <v>60.87</v>
       </c>
-      <c r="J111" s="149" t="n">
+      <c r="J111" s="150" t="n">
         <v>1.23</v>
+      </c>
+      <c r="K111" s="204" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="112">
@@ -5659,10 +5994,10 @@
       <c r="C112" s="153" t="n">
         <v>7.28</v>
       </c>
-      <c r="D112" s="75" t="n">
+      <c r="D112" s="76" t="n">
         <v>32.17</v>
       </c>
-      <c r="E112" s="95" t="n">
+      <c r="E112" s="96" t="n">
         <v>0</v>
       </c>
       <c r="F112" s="198" t="n">
@@ -5671,7 +6006,7 @@
       <c r="G112" s="188" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="H112" s="129" t="n">
+      <c r="H112" s="130" t="n">
         <v>67.29000000000001</v>
       </c>
       <c r="I112" s="168" t="n">
@@ -5680,6 +6015,9 @@
       <c r="J112" s="2" t="n">
         <v>1.1</v>
       </c>
+      <c r="K112" s="36" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -5687,32 +6025,35 @@
           <t>ESML</t>
         </is>
       </c>
-      <c r="B113" s="161" t="n">
+      <c r="B113" s="162" t="n">
         <v>6.21</v>
       </c>
       <c r="C113" s="194" t="n">
         <v>5.42</v>
       </c>
-      <c r="D113" s="181" t="n">
+      <c r="D113" s="174" t="n">
         <v>20.06</v>
       </c>
-      <c r="E113" s="23" t="n">
+      <c r="E113" s="25" t="n">
         <v>-3.68</v>
       </c>
       <c r="F113" s="84" t="n">
         <v>48.73</v>
       </c>
-      <c r="G113" s="203" t="n">
+      <c r="G113" s="204" t="n">
         <v>51.01</v>
       </c>
-      <c r="H113" s="104" t="n">
+      <c r="H113" s="105" t="n">
         <v>52.98</v>
       </c>
-      <c r="I113" s="62" t="n">
+      <c r="I113" s="63" t="n">
         <v>53.77</v>
       </c>
-      <c r="J113" s="35" t="n">
+      <c r="J113" s="38" t="n">
         <v>0.11</v>
+      </c>
+      <c r="K113" s="136" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="114">
@@ -5730,23 +6071,26 @@
       <c r="D114" s="84" t="n">
         <v>28.95</v>
       </c>
-      <c r="E114" s="233" t="n">
+      <c r="E114" s="234" t="n">
         <v>-1.67</v>
       </c>
-      <c r="F114" s="109" t="n">
+      <c r="F114" s="110" t="n">
         <v>57.62</v>
       </c>
-      <c r="G114" s="105" t="n">
+      <c r="G114" s="106" t="n">
         <v>57.19</v>
       </c>
-      <c r="H114" s="138" t="n">
+      <c r="H114" s="140" t="n">
         <v>57.95</v>
       </c>
-      <c r="I114" s="140" t="n">
+      <c r="I114" s="142" t="n">
         <v>56.32</v>
       </c>
-      <c r="J114" s="102" t="n">
+      <c r="J114" s="103" t="n">
         <v>0.65</v>
+      </c>
+      <c r="K114" s="75" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="115">
@@ -5755,32 +6099,35 @@
           <t>BTAL</t>
         </is>
       </c>
-      <c r="B115" s="136" t="n">
+      <c r="B115" s="138" t="n">
         <v>-4.58</v>
       </c>
-      <c r="C115" s="163" t="n">
+      <c r="C115" s="161" t="n">
         <v>-5.28</v>
       </c>
-      <c r="D115" s="63" t="n">
+      <c r="D115" s="64" t="n">
         <v>10.63</v>
       </c>
-      <c r="E115" s="206" t="n">
+      <c r="E115" s="207" t="n">
         <v>-13.4</v>
       </c>
-      <c r="F115" s="107" t="n">
+      <c r="F115" s="108" t="n">
         <v>63.61</v>
       </c>
-      <c r="G115" s="55" t="n">
+      <c r="G115" s="56" t="n">
         <v>56.19</v>
       </c>
-      <c r="H115" s="149" t="n">
+      <c r="H115" s="150" t="n">
         <v>51.57</v>
       </c>
-      <c r="I115" s="59" t="n">
+      <c r="I115" s="60" t="n">
         <v>47.07</v>
       </c>
-      <c r="J115" s="57" t="n">
+      <c r="J115" s="58" t="n">
         <v>0.05</v>
+      </c>
+      <c r="K115" s="20" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="116">
@@ -5792,30 +6139,33 @@
       <c r="B116" s="190" t="n">
         <v>3.11</v>
       </c>
-      <c r="C116" s="144" t="n">
+      <c r="C116" s="146" t="n">
         <v>1.59</v>
       </c>
-      <c r="D116" s="234" t="n">
+      <c r="D116" s="235" t="n">
         <v>10.4</v>
       </c>
-      <c r="E116" s="132" t="n">
+      <c r="E116" s="133" t="n">
         <v>-1.21</v>
       </c>
       <c r="F116" s="190" t="n">
         <v>55.92</v>
       </c>
-      <c r="G116" s="62" t="n">
+      <c r="G116" s="63" t="n">
         <v>56.67</v>
       </c>
-      <c r="H116" s="144" t="n">
+      <c r="H116" s="146" t="n">
         <v>57.12</v>
       </c>
-      <c r="I116" s="144" t="n">
+      <c r="I116" s="146" t="n">
         <v>54.15</v>
       </c>
       <c r="J116" s="155" t="n">
         <v>0.28</v>
       </c>
+      <c r="K116" s="53" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -5823,32 +6173,35 @@
           <t>BNDD</t>
         </is>
       </c>
-      <c r="B117" s="43" t="n">
+      <c r="B117" s="46" t="n">
         <v>-1.28</v>
       </c>
-      <c r="C117" s="104" t="n">
+      <c r="C117" s="105" t="n">
         <v>-1.71</v>
       </c>
       <c r="D117" s="88" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="E117" s="128" t="n">
+      <c r="E117" s="129" t="n">
         <v>-9.4</v>
       </c>
       <c r="F117" s="171" t="n">
         <v>69.17</v>
       </c>
-      <c r="G117" s="147" t="n">
+      <c r="G117" s="149" t="n">
         <v>58.7</v>
       </c>
-      <c r="H117" s="47" t="n">
+      <c r="H117" s="50" t="n">
         <v>55.28</v>
       </c>
-      <c r="I117" s="11" t="n">
+      <c r="I117" s="12" t="n">
         <v>49.63</v>
       </c>
-      <c r="J117" s="59" t="n">
+      <c r="J117" s="60" t="n">
         <v>-0.02</v>
+      </c>
+      <c r="K117" s="31" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="118">
@@ -5857,13 +6210,13 @@
           <t>INFL</t>
         </is>
       </c>
-      <c r="B118" s="203" t="n">
+      <c r="B118" s="204" t="n">
         <v>-1.86</v>
       </c>
-      <c r="C118" s="45" t="n">
+      <c r="C118" s="48" t="n">
         <v>0.29</v>
       </c>
-      <c r="D118" s="235" t="n">
+      <c r="D118" s="236" t="n">
         <v>4.32</v>
       </c>
       <c r="E118" s="83" t="n">
@@ -5872,17 +6225,20 @@
       <c r="F118" s="9" t="n">
         <v>40.15</v>
       </c>
-      <c r="G118" s="26" t="n">
+      <c r="G118" s="28" t="n">
         <v>41.22</v>
       </c>
-      <c r="H118" s="78" t="n">
+      <c r="H118" s="79" t="n">
         <v>43.25</v>
       </c>
-      <c r="I118" s="219" t="n">
+      <c r="I118" s="220" t="n">
         <v>47.82</v>
       </c>
-      <c r="J118" s="37" t="n">
+      <c r="J118" s="21" t="n">
         <v>-0.19</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="119">
@@ -5891,31 +6247,34 @@
           <t>EMB</t>
         </is>
       </c>
-      <c r="B119" s="47" t="n">
+      <c r="B119" s="50" t="n">
         <v>2.76</v>
       </c>
-      <c r="C119" s="77" t="n">
+      <c r="C119" s="78" t="n">
         <v>2.98</v>
       </c>
-      <c r="D119" s="236" t="n">
+      <c r="D119" s="237" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="E119" s="216" t="n">
+      <c r="E119" s="217" t="n">
         <v>-2.27</v>
       </c>
-      <c r="F119" s="102" t="n">
+      <c r="F119" s="103" t="n">
         <v>46.28</v>
       </c>
-      <c r="G119" s="101" t="n">
+      <c r="G119" s="102" t="n">
         <v>49.08</v>
       </c>
-      <c r="H119" s="149" t="n">
+      <c r="H119" s="150" t="n">
         <v>51.49</v>
       </c>
       <c r="I119" s="190" t="n">
         <v>53.26</v>
       </c>
-      <c r="J119" s="57" t="n">
+      <c r="J119" s="58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K119" s="60" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5931,26 +6290,29 @@
       <c r="C120" s="190" t="n">
         <v>0.32</v>
       </c>
-      <c r="D120" s="100" t="n">
+      <c r="D120" s="101" t="n">
         <v>5.45</v>
       </c>
-      <c r="E120" s="230" t="n">
+      <c r="E120" s="231" t="n">
         <v>-5.19</v>
       </c>
-      <c r="F120" s="237" t="n">
+      <c r="F120" s="202" t="n">
         <v>38.09</v>
       </c>
-      <c r="G120" s="72" t="n">
+      <c r="G120" s="73" t="n">
         <v>41.43</v>
       </c>
-      <c r="H120" s="51" t="n">
+      <c r="H120" s="11" t="n">
         <v>45.07</v>
       </c>
-      <c r="I120" s="111" t="n">
+      <c r="I120" s="112" t="n">
         <v>49.87</v>
       </c>
-      <c r="J120" s="19" t="n">
+      <c r="J120" s="20" t="n">
         <v>-0.09</v>
+      </c>
+      <c r="K120" s="31" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -5959,16 +6321,16 @@
           <t>LQD</t>
         </is>
       </c>
-      <c r="B121" s="38" t="n">
+      <c r="B121" s="41" t="n">
         <v>3.37</v>
       </c>
-      <c r="C121" s="178" t="n">
+      <c r="C121" s="179" t="n">
         <v>3.02</v>
       </c>
-      <c r="D121" s="17" t="n">
+      <c r="D121" s="18" t="n">
         <v>11.54</v>
       </c>
-      <c r="E121" s="141" t="n">
+      <c r="E121" s="143" t="n">
         <v>-1.56</v>
       </c>
       <c r="F121" s="2" t="n">
@@ -5977,13 +6339,16 @@
       <c r="G121" s="85" t="n">
         <v>51.78</v>
       </c>
-      <c r="H121" s="137" t="n">
+      <c r="H121" s="139" t="n">
         <v>53.99</v>
       </c>
-      <c r="I121" s="144" t="n">
+      <c r="I121" s="146" t="n">
         <v>54.15</v>
       </c>
-      <c r="J121" s="50" t="n">
+      <c r="J121" s="53" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K121" s="135" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5993,32 +6358,35 @@
           <t>LQDH</t>
         </is>
       </c>
-      <c r="B122" s="12" t="n">
+      <c r="B122" s="13" t="n">
         <v>0.89</v>
       </c>
-      <c r="C122" s="62" t="n">
+      <c r="C122" s="63" t="n">
         <v>1.03</v>
       </c>
       <c r="D122" s="115" t="n">
         <v>4.04</v>
       </c>
-      <c r="E122" s="217" t="n">
+      <c r="E122" s="218" t="n">
         <v>-1.01</v>
       </c>
       <c r="F122" s="88" t="n">
         <v>30.75</v>
       </c>
-      <c r="G122" s="37" t="n">
+      <c r="G122" s="21" t="n">
         <v>43.74</v>
       </c>
-      <c r="H122" s="60" t="n">
+      <c r="H122" s="61" t="n">
         <v>47.84</v>
       </c>
-      <c r="I122" s="93" t="n">
+      <c r="I122" s="94" t="n">
         <v>51.72</v>
       </c>
-      <c r="J122" s="35" t="n">
+      <c r="J122" s="38" t="n">
         <v>0.11</v>
+      </c>
+      <c r="K122" s="38" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="123">
@@ -6027,32 +6395,35 @@
           <t>HYG</t>
         </is>
       </c>
-      <c r="B123" s="45" t="n">
+      <c r="B123" s="48" t="n">
         <v>3</v>
       </c>
       <c r="C123" s="170" t="n">
         <v>2.73</v>
       </c>
-      <c r="D123" s="176" t="n">
+      <c r="D123" s="177" t="n">
         <v>7.54</v>
       </c>
-      <c r="E123" s="224" t="n">
+      <c r="E123" s="226" t="n">
         <v>-0.96</v>
       </c>
       <c r="F123" s="9" t="n">
         <v>40.27</v>
       </c>
-      <c r="G123" s="101" t="n">
+      <c r="G123" s="102" t="n">
         <v>49.09</v>
       </c>
-      <c r="H123" s="93" t="n">
+      <c r="H123" s="94" t="n">
         <v>53.12</v>
       </c>
       <c r="I123" s="170" t="n">
         <v>55.03</v>
       </c>
-      <c r="J123" s="134" t="n">
+      <c r="J123" s="135" t="n">
         <v>0.14</v>
+      </c>
+      <c r="K123" s="135" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="124">
@@ -6061,32 +6432,35 @@
           <t>HYGH</t>
         </is>
       </c>
-      <c r="B124" s="137" t="n">
+      <c r="B124" s="139" t="n">
         <v>1.27</v>
       </c>
-      <c r="C124" s="109" t="n">
+      <c r="C124" s="110" t="n">
         <v>1.26</v>
       </c>
-      <c r="D124" s="100" t="n">
+      <c r="D124" s="101" t="n">
         <v>5.54</v>
       </c>
-      <c r="E124" s="224" t="n">
+      <c r="E124" s="226" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="F124" s="72" t="n">
+      <c r="F124" s="73" t="n">
         <v>37.87</v>
       </c>
-      <c r="G124" s="66" t="n">
+      <c r="G124" s="67" t="n">
         <v>46.66</v>
       </c>
-      <c r="H124" s="101" t="n">
+      <c r="H124" s="102" t="n">
         <v>49.74</v>
       </c>
-      <c r="I124" s="53" t="n">
+      <c r="I124" s="54" t="n">
         <v>52.14</v>
       </c>
-      <c r="J124" s="35" t="n">
+      <c r="J124" s="38" t="n">
         <v>0.11</v>
+      </c>
+      <c r="K124" s="38" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
